--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="114" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="573" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="653">
   <si>
     <t>Ngay</t>
   </si>
@@ -1974,7 +1974,13 @@
     <t>282 &gt; xit</t>
   </si>
   <si>
-    <t>80;40;75;57;74;91;79;62;80;43;90;38;99;31;22;80;32;61;46;61;18;24;23;78;34;74;50 </t>
+    <t>80;40;75;57;74;91;79;62;80;43;90;38;99;31;22;80;32;61;46;61;18;24;23;78;34;74;50</t>
+  </si>
+  <si>
+    <t>83;62;00;39;66;02;97;78;43;97;32;84;79;37;54;29;58;45;43;94;35;16;79;38;88;24;12</t>
+  </si>
+  <si>
+    <t>393 &gt; </t>
   </si>
   <si>
     <t>30 / 11</t>
@@ -2284,21 +2290,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.27058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.4980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.56470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.53333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.53333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.0313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.8627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.1411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5654,26 +5660,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.22352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7803,26 +7809,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B24" activeCellId="0" pane="topLeft" sqref="B24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O27" activeCellId="0" pane="topLeft" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.22352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -9062,46 +9068,49 @@
       </c>
       <c r="P25" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+      <c r="B26" s="0" t="s">
+        <v>650</v>
+      </c>
       <c r="C26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>39</v>
@@ -9109,7 +9118,9 @@
       <c r="N26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="12"/>
+      <c r="O26" s="12" t="s">
+        <v>651</v>
+      </c>
       <c r="P26" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
@@ -9414,7 +9425,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -9926,21 +9937,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.27058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.4980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.56470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.53333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.53333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.0313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.8627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.1411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11673,21 +11684,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.22352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -11943,7 +11954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
         <v>156</v>
       </c>
@@ -13765,21 +13776,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.22352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15828,26 +15839,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.22352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.07450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17907,20 +17918,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.4980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.53333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.8627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56862745098039"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19888,26 +19899,26 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.7882352941176"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.48235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.34509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.53333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.1490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.50196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.36470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56862745098039"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21874,19 +21885,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.9921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.48627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.53333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56862745098039"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -25703,21 +25714,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.27058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.5254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.91764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.53333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.8980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.93333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56862745098039"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="573" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="270" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="654">
   <si>
     <t>Ngay</t>
   </si>
@@ -1980,7 +1980,10 @@
     <t>83;62;00;39;66;02;97;78;43;97;32;84;79;37;54;29;58;45;43;94;35;16;79;38;88;24;12</t>
   </si>
   <si>
-    <t>393 &gt; </t>
+    <t>78;85;87;01;49;34;99;74;76;58;31;80;85;23;92;88;15;00;99;20;37;69;15;82;34;92;58</t>
+  </si>
+  <si>
+    <t>989 &gt;</t>
   </si>
   <si>
     <t>30 / 11</t>
@@ -2290,21 +2293,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.8627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.56862745098039"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.1411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.36078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.2235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.2509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5665,21 +5668,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.2705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7809,26 +7812,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O27" activeCellId="0" pane="topLeft" sqref="O27"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="P29" activeCellId="0" pane="topLeft" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.2705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -9119,50 +9122,53 @@
         <v>44</v>
       </c>
       <c r="O26" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="P26" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+      <c r="B27" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="P26" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="C27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>53</v>
@@ -9170,8 +9176,12 @@
       <c r="N27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="2"/>
+      <c r="O27" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
       <c r="C28" s="6" t="n">
@@ -9425,7 +9435,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -9937,21 +9947,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.8627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.56862745098039"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.1411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.36078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.2235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.2509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11684,21 +11694,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13776,21 +13786,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15844,21 +15854,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25882352941177"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17918,20 +17928,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.8627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.2235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.6078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19904,21 +19914,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.1490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.50196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.36470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.51764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.3843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.6078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21885,19 +21895,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.64313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.7490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.66274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.6078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -25714,21 +25724,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.8980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.78039215686274"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.93333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.64313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.36078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.2745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.8"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.95294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.66274509803922"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.6078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="270" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="127" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="656">
   <si>
     <t>Ngay</t>
   </si>
@@ -1983,7 +1983,13 @@
     <t>78;85;87;01;49;34;99;74;76;58;31;80;85;23;92;88;15;00;99;20;37;69;15;82;34;92;58</t>
   </si>
   <si>
-    <t>989 &gt;</t>
+    <t>989 &gt; 98</t>
+  </si>
+  <si>
+    <t>29;70;54;50;64;65;63;37;18;42;64;76;95;57;29;47;25;78;18;70;17;51;72;98;33;07;95 </t>
+  </si>
+  <si>
+    <t>575 &gt;</t>
   </si>
   <si>
     <t>30 / 11</t>
@@ -2293,21 +2299,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.36078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.2235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.2509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.53725490196078"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.356862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5668,21 +5674,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.2705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7812,26 +7818,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="P29" activeCellId="0" pane="topLeft" sqref="P29"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B29" activeCellId="0" pane="topLeft" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.2705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -9183,46 +9189,49 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+      <c r="B28" s="0" t="s">
+        <v>653</v>
+      </c>
       <c r="C28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>59</v>
@@ -9230,7 +9239,9 @@
       <c r="N28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="12"/>
+      <c r="O28" s="12" t="s">
+        <v>654</v>
+      </c>
       <c r="P28" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
@@ -9435,7 +9446,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -9947,21 +9958,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.36078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.2235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.2509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.53725490196078"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.356862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11694,21 +11705,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13786,21 +13797,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15854,21 +15865,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17928,20 +17939,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.2235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.64313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19914,21 +19925,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.8823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.53725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.64313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21895,19 +21906,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.7490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.1294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.68235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.64313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -25724,21 +25735,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.36078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.2745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.6470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.8156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.96862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.68235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.53725490196078"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.64313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="127" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="59" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="659">
   <si>
     <t>Ngay</t>
   </si>
@@ -1986,10 +1986,19 @@
     <t>989 &gt; 98</t>
   </si>
   <si>
-    <t>29;70;54;50;64;65;63;37;18;42;64;76;95;57;29;47;25;78;18;70;17;51;72;98;33;07;95 </t>
-  </si>
-  <si>
-    <t>575 &gt;</t>
+    <t>29;70;54;50;64;65;63;37;18;42;64;76;95;57;29;47;25;78;18;70;17;51;72;98;33;07;95</t>
+  </si>
+  <si>
+    <t>575 &gt; 75</t>
+  </si>
+  <si>
+    <t>26 / 11</t>
+  </si>
+  <si>
+    <t>61;66;08;67;24;10;93;73;43;74;02;52;44;75;42;00;79;22;21;18;06;84;82;91;28;42;09 </t>
+  </si>
+  <si>
+    <t>242 &gt;</t>
   </si>
   <si>
     <t>30 / 11</t>
@@ -2274,7 +2283,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -2299,21 +2308,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.53725490196078"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.356862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.45098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.956862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.88235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.67843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.67843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.4666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5674,21 +5683,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7818,26 +7827,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B29" activeCellId="0" pane="topLeft" sqref="B29"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O26" activeCellId="0" pane="topLeft" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -9127,7 +9136,7 @@
       <c r="N26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="O26" s="13" t="s">
         <v>248</v>
       </c>
       <c r="P26" s="2"/>
@@ -9244,46 +9253,52 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>656</v>
+      </c>
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>98</v>
@@ -9291,7 +9306,9 @@
       <c r="N29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O29" s="12"/>
+      <c r="O29" s="12" t="s">
+        <v>657</v>
+      </c>
       <c r="P29" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
@@ -9446,7 +9463,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -9958,21 +9975,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.53725490196078"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.356862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.45098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.956862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.88235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.67843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.67843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.4666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11705,21 +11722,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13797,21 +13814,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15865,21 +15882,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.32941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17939,20 +17956,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.956862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.67843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19925,21 +19942,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.8823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.53725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.2549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.55294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.41960784313725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.67843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21906,19 +21923,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.1294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.68235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.5098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.69803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.67843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -25735,21 +25752,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.6470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.8156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.96862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.68235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.53725490196078"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.45098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.0274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.69803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.67843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.6549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="59" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="28" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="662">
   <si>
     <t>Ngay</t>
   </si>
@@ -1995,10 +1995,19 @@
     <t>26 / 11</t>
   </si>
   <si>
-    <t>61;66;08;67;24;10;93;73;43;74;02;52;44;75;42;00;79;22;21;18;06;84;82;91;28;42;09 </t>
-  </si>
-  <si>
-    <t>242 &gt;</t>
+    <t>61;66;08;67;24;10;93;73;43;74;02;52;44;75;42;00;79;22;21;18;06;84;82;91;28;42;09</t>
+  </si>
+  <si>
+    <t>34;91;98;81;22;37;15;79;26;59;12;40;35;25;38;07;59;89;22;23;71;19;18;39;73;12;08</t>
+  </si>
+  <si>
+    <t>292 &gt; 92</t>
+  </si>
+  <si>
+    <t>92;58;52;52;19;28;62;48;35;97;89;45;14;69;86;98;61;17;33;27;01;60;81;71;08;37;02</t>
+  </si>
+  <si>
+    <t>181 &gt;</t>
   </si>
   <si>
     <t>30 / 11</t>
@@ -2158,7 +2167,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -2284,6 +2293,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -2308,21 +2318,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.45098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.956862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.88235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.4666666666667"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.5764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5683,21 +5693,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5137254901961"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7827,26 +7837,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O26" activeCellId="0" pane="topLeft" sqref="O26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B31" activeCellId="0" pane="topLeft" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5137254901961"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -9306,51 +9316,54 @@
       <c r="N29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="P29" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+      <c r="B30" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="P29" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
       <c r="C30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>68</v>
@@ -9358,49 +9371,54 @@
       <c r="N30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O30" s="12"/>
+      <c r="O30" s="12" t="s">
+        <v>658</v>
+      </c>
       <c r="P30" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="B31" s="0" t="s">
+        <v>659</v>
+      </c>
       <c r="C31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>80</v>
@@ -9408,7 +9426,9 @@
       <c r="N31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O31" s="12"/>
+      <c r="O31" s="43" t="s">
+        <v>660</v>
+      </c>
       <c r="P31" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
@@ -9463,7 +9483,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -9975,21 +9995,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.45098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.956862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.88235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.4666666666667"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.5764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11722,21 +11742,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13814,21 +13834,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15882,21 +15902,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.36862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -16617,7 +16637,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>281</v>
       </c>
@@ -17956,20 +17976,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.956862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19942,21 +19962,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.2549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.55294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.41960784313725"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.57254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.43529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21923,19 +21943,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.5098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.69803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.8980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.71764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -25752,21 +25772,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.45098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.0274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.69803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.4078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.85098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.0078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.71764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="28" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="13" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="665">
   <si>
     <t>Ngay</t>
   </si>
@@ -2007,10 +2007,19 @@
     <t>92;58;52;52;19;28;62;48;35;97;89;45;14;69;86;98;61;17;33;27;01;60;81;71;08;37;02</t>
   </si>
   <si>
-    <t>181 &gt;</t>
+    <t>48;12;37;12;72;52;41;11;30;12;85;26;60;24;72;06;29;79;39;34;90;25;88;17;11;79;93</t>
+  </si>
+  <si>
+    <t>121 &gt; xit</t>
   </si>
   <si>
     <t>30 / 11</t>
+  </si>
+  <si>
+    <t>53;55;10;52;24;61;76;96;71;28;23;51;33;20;87;44;56;80;36;79;50;76;32;91;79;27;89</t>
+  </si>
+  <si>
+    <t>575 &gt; *</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2176,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -2293,7 +2302,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -2318,21 +2326,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.49803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.5764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.54901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5693,21 +5701,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5137254901961"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5960784313726"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7838,25 +7846,25 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B31" activeCellId="0" pane="topLeft" sqref="B31"/>
+      <selection activeCell="P36" activeCellId="0" pane="topLeft" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5137254901961"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5960784313726"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -9426,51 +9434,54 @@
       <c r="N31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O31" s="43" t="s">
+      <c r="O31" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+      <c r="B32" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="P31" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
       <c r="C32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>55</v>
@@ -9478,52 +9489,57 @@
       <c r="N32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O32" s="12"/>
+      <c r="O32" s="13" t="s">
+        <v>661</v>
+      </c>
       <c r="P32" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>663</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>88</v>
@@ -9531,8 +9547,12 @@
       <c r="N33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="2"/>
+      <c r="O33" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
       <c r="C34" s="6" t="n">
@@ -9995,21 +10015,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.49803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.5764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.54901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11742,21 +11762,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13834,21 +13854,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15902,21 +15922,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.40392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17976,20 +17996,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.75294117647059"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.278431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19962,21 +19982,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.57254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.43529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.9960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.45490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.75294117647059"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.278431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21943,19 +21963,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.8980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.71764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.2862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.73725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.75294117647059"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.278431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -25772,21 +25792,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.49803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.4078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.71764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.54901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.7882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.73725490196078"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.75294117647059"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.278431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="13" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="417" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="667">
   <si>
     <t>Ngay</t>
   </si>
@@ -2019,7 +2019,13 @@
     <t>53;55;10;52;24;61;76;96;71;28;23;51;33;20;87;44;56;80;36;79;50;76;32;91;79;27;89</t>
   </si>
   <si>
-    <t>575 &gt; *</t>
+    <t>575 &gt; * xit</t>
+  </si>
+  <si>
+    <t>32;69;06;03;13;81;84;81;56;96;16;06;45;62;55;40;01;86;88;64;06;95;61;32;68;33;46</t>
+  </si>
+  <si>
+    <t>686 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2326,21 +2332,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.54901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.59607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.88235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.0156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.22745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5701,21 +5707,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5960784313726"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.678431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7846,25 +7852,25 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="P36" activeCellId="0" pane="topLeft" sqref="P36"/>
+      <selection activeCell="O36" activeCellId="0" pane="topLeft" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5960784313726"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.678431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -9547,53 +9553,56 @@
       <c r="N33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O33" s="12" t="s">
+      <c r="O33" s="13" t="s">
         <v>664</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="34">
+      <c r="B34" s="0" t="s">
+        <v>665</v>
+      </c>
       <c r="C34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
         <v>0</v>
       </c>
-      <c r="K34" s="6" t="n">
+      <c r="K34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>94</v>
@@ -9601,7 +9610,9 @@
       <c r="N34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O34" s="12"/>
+      <c r="O34" s="12" t="s">
+        <v>666</v>
+      </c>
       <c r="P34" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
@@ -10015,21 +10026,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.54901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.59607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.88235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.0156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.22745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11762,21 +11773,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13854,21 +13865,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15922,21 +15933,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17996,20 +18007,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.79607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.278431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19982,21 +19993,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.9960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.5921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.45490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.3647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.6078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.47450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.79607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.278431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21963,19 +21974,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.2862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.73725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.678431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.79607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.278431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -25792,21 +25803,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.54901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.7882352941176"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.73725490196078"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.59607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.1647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.89019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.79607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.278431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="417" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="578" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,13 +19,14 @@
     <sheet name="T8_T9" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="T10" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="T11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="T12" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="672">
   <si>
     <t>Ngay</t>
   </si>
@@ -2025,7 +2026,22 @@
     <t>32;69;06;03;13;81;84;81;56;96;16;06;45;62;55;40;01;86;88;64;06;95;61;32;68;33;46</t>
   </si>
   <si>
-    <t>686 &gt;</t>
+    <t>686 &gt; 68</t>
+  </si>
+  <si>
+    <t>01 / 12</t>
+  </si>
+  <si>
+    <t>76;32;26;72;57;23;19;68;50;73;19;85;41;89;40;24;31;61;75;98;64;48;66;84;29;23;34</t>
+  </si>
+  <si>
+    <t>76;64;62;20;31;64;64;84;60;20;53;99;94;51;30;78;07;43;65;67;49;33;83;06;04;33;78</t>
+  </si>
+  <si>
+    <t>85;96;56;78;09;72;58;54;64;25;30;15;00;22;53;72;79;54;50;41;37;67;98;51;65;31;10 </t>
+  </si>
+  <si>
+    <t>Nghi (575)</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2198,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -2308,6 +2324,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -2332,21 +2349,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.59607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.0156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.22745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.25882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.64313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.06274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5707,21 +5723,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.678431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7851,26 +7866,25 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O36" activeCellId="0" pane="topLeft" sqref="O36"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="P33" activeCellId="0" pane="topLeft" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.678431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -9556,7 +9570,7 @@
       <c r="O33" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="P33" s="14" t="s">
+      <c r="P33" s="10" t="s">
         <v>155</v>
       </c>
     </row>
@@ -10010,6 +10024,1571 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O8" activeCellId="0" pane="topLeft" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.5019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.84313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.5843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.43921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90196078431373"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.74509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.6"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="257" min="15" style="0" width="11.6235294117647"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+      <c r="B3" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>13</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+      <c r="B5" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="B6" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+      <c r="B7" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
+      <c r="C8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
+      <c r="A9" s="15"/>
+      <c r="C9" s="16" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="16" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
+      <c r="C10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+      <c r="C11" s="6" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
+      <c r="C12" s="6" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
+      <c r="C13" s="6" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
+      <c r="C14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
+      <c r="C15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
+      <c r="C16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+      <c r="C19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+      <c r="C20" s="6" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
+      <c r="C22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
+      <c r="C23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="C24" s="6" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+      <c r="C25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+      <c r="C26" s="6" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+      <c r="C27" s="6" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
+      <c r="C28" s="6" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+      <c r="C30" s="6" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="C31" s="6" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="6" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+      <c r="C32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="6" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+      <c r="A33" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="6" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="6" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+      <c r="C34" s="6" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="6" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="6" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10026,21 +11605,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.59607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.0156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.22745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.25882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.64313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.06274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11773,21 +13351,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13865,21 +15442,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15933,21 +17509,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -18007,20 +19582,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.84313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83137254901961"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19993,21 +21567,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.84313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.3647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.6078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.47450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.62745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.49019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83137254901961"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21974,19 +23547,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.678431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83137254901961"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -25803,21 +27375,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.59607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.1647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.89019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.25882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.64313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.5450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83137254901961"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="578" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="379" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="675">
   <si>
     <t>Ngay</t>
   </si>
@@ -2029,19 +2029,28 @@
     <t>686 &gt; 68</t>
   </si>
   <si>
+    <t>76;32;26;72;57;23;19;68;50;73;19;85;41;89;40;24;31;61;75;98;64;48;66;84;29;23;34</t>
+  </si>
+  <si>
+    <t>57 75</t>
+  </si>
+  <si>
     <t>01 / 12</t>
   </si>
   <si>
-    <t>76;32;26;72;57;23;19;68;50;73;19;85;41;89;40;24;31;61;75;98;64;48;66;84;29;23;34</t>
-  </si>
-  <si>
     <t>76;64;62;20;31;64;64;84;60;20;53;99;94;51;30;78;07;43;65;67;49;33;83;06;04;33;78</t>
   </si>
   <si>
-    <t>85;96;56;78;09;72;58;54;64;25;30;15;00;22;53;72;79;54;50;41;37;67;98;51;65;31;10 </t>
+    <t>85;96;56;78;09;72;58;54;64;25;30;15;00;22;53;72;79;54;50;41;37;67;98;51;65;31;10</t>
   </si>
   <si>
     <t>Nghi (575)</t>
+  </si>
+  <si>
+    <t>42;09;79;11;35;14;16;73;56;37;33;41;84;79;25;58;46;72;53;56;53;74;81;99;28;69;03</t>
+  </si>
+  <si>
+    <t>353 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2349,20 +2358,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.64313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.06274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.8196078431372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5718,25 +5728,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O34" activeCellId="0" pane="topLeft" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8392156862745"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -5899,7 +5910,7 @@
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
         <v>123</v>
       </c>
@@ -6359,7 +6370,7 @@
         <v>583</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>137</v>
       </c>
@@ -6462,7 +6473,7 @@
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="17">
       <c r="B17" s="0" t="s">
         <v>140</v>
       </c>
@@ -6515,7 +6526,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="18">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>141</v>
@@ -6632,7 +6643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>144</v>
       </c>
@@ -6746,7 +6757,7 @@
         <v>587</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="B22" s="0" t="s">
         <v>588</v>
       </c>
@@ -7076,7 +7087,7 @@
         <v>597</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
         <v>598</v>
       </c>
@@ -7187,7 +7198,7 @@
         <v>601</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
         <v>602</v>
       </c>
@@ -7348,7 +7359,7 @@
       <c r="N32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="O32" s="13" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7460,7 +7471,7 @@
       <c r="N34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O34" s="12" t="s">
+      <c r="O34" s="13" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7866,25 +7877,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="P33" activeCellId="0" pane="topLeft" sqref="P33"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B13" activeCellId="0" pane="topLeft" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8392156862745"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.7529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -8259,7 +8272,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
         <v>622</v>
       </c>
@@ -8672,7 +8685,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="18">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>636</v>
@@ -8731,7 +8744,7 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
         <v>638</v>
       </c>
@@ -8789,7 +8802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>639</v>
       </c>
@@ -9179,7 +9192,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
         <v>651</v>
       </c>
@@ -9514,7 +9527,7 @@
       </c>
       <c r="P32" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
         <v>662</v>
       </c>
@@ -9630,45 +9643,48 @@
       <c r="P34" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+      <c r="B35" s="0" t="s">
+        <v>667</v>
+      </c>
       <c r="C35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>96</v>
@@ -9677,7 +9693,9 @@
         <v>58</v>
       </c>
       <c r="O35" s="12"/>
-      <c r="P35" s="2"/>
+      <c r="P35" s="10" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
       <c r="C36" s="6" t="n">
@@ -10035,28 +10053,30 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O8" activeCellId="0" pane="topLeft" sqref="O8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O9" activeCellId="0" pane="topLeft" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.5019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.84313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.5843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.43921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90196078431373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.74509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.8549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.87843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.46666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.76862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.05882352941176"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="257" min="15" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.4117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10118,7 +10138,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>665</v>
@@ -10172,7 +10192,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C5" s="6" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -10216,14 +10236,14 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>599</v>
       </c>
       <c r="P5" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C6" s="6" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -10267,16 +10287,16 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="13" t="s">
         <v>211</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>155</v>
+        <v>486</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -10321,54 +10341,59 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="12" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+      <c r="B8" s="0" t="s">
+        <v>673</v>
+      </c>
       <c r="C8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="12" t="s">
+        <v>674</v>
+      </c>
       <c r="P8" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
@@ -11605,20 +11630,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.64313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.06274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.8196078431372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13351,20 +13377,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13567,7 +13594,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
         <v>153</v>
       </c>
@@ -14036,7 +14063,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>173</v>
       </c>
@@ -14089,7 +14116,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>175</v>
       </c>
@@ -14142,7 +14169,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="17">
       <c r="B17" s="0" t="s">
         <v>176</v>
       </c>
@@ -14310,7 +14337,7 @@
       </c>
       <c r="P19" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>182</v>
       </c>
@@ -14367,7 +14394,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
         <v>185</v>
       </c>
@@ -14812,7 +14839,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="29">
       <c r="B29" s="0" t="s">
         <v>198</v>
       </c>
@@ -14869,7 +14896,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
         <v>200</v>
       </c>
@@ -15437,25 +15464,26 @@
   </sheetPr>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="P15" activeCellId="0" pane="topLeft" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15760,7 +15788,7 @@
       </c>
       <c r="P7" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
         <v>218</v>
       </c>
@@ -16041,7 +16069,7 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="12" t="s">
         <v>229</v>
       </c>
       <c r="P13" s="6"/>
@@ -16097,7 +16125,7 @@
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>232</v>
       </c>
@@ -16146,11 +16174,11 @@
       <c r="O15" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>234</v>
       </c>
@@ -16362,7 +16390,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>241</v>
       </c>
@@ -16417,7 +16445,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="21">
       <c r="B21" s="0" t="s">
         <v>243</v>
       </c>
@@ -16639,7 +16667,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="25">
       <c r="B25" s="0" t="s">
         <v>251</v>
       </c>
@@ -17504,25 +17532,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.49411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.478431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17878,7 +17907,7 @@
       </c>
       <c r="P8" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="9">
       <c r="A9" s="15"/>
       <c r="B9" s="0" t="s">
         <v>270</v>
@@ -18243,7 +18272,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>281</v>
       </c>
@@ -18515,7 +18544,7 @@
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
         <v>289</v>
       </c>
@@ -18960,7 +18989,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="29">
       <c r="B29" s="0" t="s">
         <v>303</v>
       </c>
@@ -19577,24 +19606,25 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.4392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.8196078431372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.86666666666667"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19796,7 +19826,7 @@
       </c>
       <c r="P4" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
       <c r="B5" s="6" t="s">
         <v>315</v>
       </c>
@@ -20277,7 +20307,7 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="14">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>333</v>
@@ -20605,7 +20635,7 @@
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="B20" s="6" t="s">
         <v>342</v>
       </c>
@@ -20885,7 +20915,7 @@
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="25">
       <c r="B25" s="6" t="s">
         <v>352</v>
       </c>
@@ -20996,7 +21026,7 @@
         <v>355</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
       <c r="B27" s="6" t="s">
         <v>356</v>
       </c>
@@ -21110,7 +21140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="29">
       <c r="B29" s="6" t="s">
         <v>359</v>
       </c>
@@ -21228,7 +21258,7 @@
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="31">
       <c r="B31" s="6" t="s">
         <v>362</v>
       </c>
@@ -21285,7 +21315,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
         <v>363</v>
       </c>
@@ -21562,25 +21592,26 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.62745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.49019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.64313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.50980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.86666666666667"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -21674,7 +21705,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
         <v>367</v>
@@ -21834,7 +21865,7 @@
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="6">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
         <v>372</v>
@@ -22050,7 +22081,7 @@
         <v>379</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="10">
       <c r="A10" s="24"/>
       <c r="B10" s="24" t="s">
         <v>380</v>
@@ -22209,7 +22240,7 @@
         <v>385</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="13">
       <c r="A13" s="24"/>
       <c r="B13" s="24" t="s">
         <v>386</v>
@@ -22268,7 +22299,7 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="14">
       <c r="A14" s="24"/>
       <c r="B14" s="24" t="s">
         <v>387</v>
@@ -22327,7 +22358,7 @@
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>388</v>
       </c>
@@ -22816,7 +22847,7 @@
         <v>265</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="24">
       <c r="A24" s="24"/>
       <c r="B24" s="24" t="s">
         <v>404</v>
@@ -23149,7 +23180,7 @@
         <v>235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="30">
       <c r="A30" s="24"/>
       <c r="B30" s="24" t="s">
         <v>415</v>
@@ -23542,26 +23573,27 @@
   </sheetPr>
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B29" activeCellId="0" pane="topLeft" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.78039215686274"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.4745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.86666666666667"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24118,7 +24150,7 @@
       </c>
       <c r="P11" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
         <v>441</v>
       </c>
@@ -24275,7 +24307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>446</v>
       </c>
@@ -24959,7 +24991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
         <v>468</v>
       </c>
@@ -25236,7 +25268,7 @@
       </c>
       <c r="P32" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="33">
       <c r="B33" s="0" t="s">
         <v>478</v>
       </c>
@@ -25458,7 +25490,7 @@
       </c>
       <c r="P36" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="37">
       <c r="B37" s="0" t="s">
         <v>484</v>
       </c>
@@ -25900,7 +25932,7 @@
       </c>
       <c r="P44" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
         <v>501</v>
       </c>
@@ -26015,7 +26047,7 @@
       </c>
       <c r="P46" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="47">
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
@@ -26275,7 +26307,7 @@
       </c>
       <c r="P51" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="52">
       <c r="B52" s="0" t="s">
         <v>511</v>
       </c>
@@ -26442,7 +26474,7 @@
       </c>
       <c r="P54" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="55">
       <c r="B55" s="0" t="s">
         <v>515</v>
       </c>
@@ -27370,28 +27402,29 @@
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.64313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.5450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.90588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.78039215686274"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.9333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.92549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.8"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27484,7 +27517,7 @@
         <v>288</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3">
       <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
@@ -27537,7 +27570,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="4">
       <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
@@ -27690,7 +27723,7 @@
         <v>528</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="7">
       <c r="A7" s="32"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
@@ -28693,7 +28726,7 @@
         <v>540</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
         <v>47</v>
       </c>
@@ -29290,7 +29323,7 @@
         <v>547</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="37">
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
@@ -29327,7 +29360,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="38">
       <c r="B38" s="0" t="s">
         <v>67</v>
       </c>
@@ -29603,7 +29636,7 @@
         <v>553</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="43">
       <c r="B43" s="0" t="s">
         <v>75</v>
       </c>
@@ -29876,7 +29909,7 @@
         <v>558</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="48">
       <c r="B48" s="24" t="s">
         <v>85</v>
       </c>
@@ -29933,7 +29966,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="49">
       <c r="A49" s="7" t="n">
         <v>41617</v>
       </c>
@@ -30421,7 +30454,7 @@
         <v>568</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="58">
       <c r="B58" s="24" t="s">
         <v>106</v>
       </c>
@@ -30524,7 +30557,7 @@
         <v>570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
       <c r="B60" s="0" t="s">
         <v>110</v>
       </c>
@@ -30730,7 +30763,7 @@
         <v>574</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
       <c r="B64" s="0" t="s">
         <v>115</v>
       </c>

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="379" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="507" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="681">
   <si>
     <t>Ngay</t>
   </si>
@@ -2050,7 +2050,25 @@
     <t>42;09;79;11;35;14;16;73;56;37;33;41;84;79;25;58;46;72;53;56;53;74;81;99;28;69;03</t>
   </si>
   <si>
-    <t>353 &gt;</t>
+    <t>07;63;28;31;67;18;44;79;72;23;38;71;99;04;44;20;22;67;44;70;06;22;59;02;75;88;92</t>
+  </si>
+  <si>
+    <t>14;40;96;50;62;81;05;59;25;05;82;41;95;00;34;98;22;36;60;23;76;37;68;24;67;01;73</t>
+  </si>
+  <si>
+    <t>060 &gt; 60</t>
+  </si>
+  <si>
+    <t>63;49;70;86;85;85;54;53;89;15;00;24;12;48;94;65;47;60;89;40;09;33;51;61;18;23;13</t>
+  </si>
+  <si>
+    <t>06;40;38;43;95;17;88;89;81;44;70;12;36;19;78;61;06;84;92;86;41;65;62;71;89;10;81 </t>
+  </si>
+  <si>
+    <t>99;98;42;99;16;98;03;90;29;97;98;46;38;29;55;25;60;40;62;28;50;92;17;94;19;21;75</t>
+  </si>
+  <si>
+    <t>292 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2358,21 +2376,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.8196078431372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.83137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.956862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.24313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5728,26 +5746,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="O34" activeCellId="0" pane="topLeft" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.0941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7877,27 +7895,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B13" activeCellId="0" pane="topLeft" sqref="B13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O30" activeCellId="0" pane="topLeft" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8392156862745"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.7529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.0941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -8272,7 +8290,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
         <v>622</v>
       </c>
@@ -8685,7 +8703,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>636</v>
@@ -8744,7 +8762,7 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
         <v>638</v>
       </c>
@@ -8802,7 +8820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>639</v>
       </c>
@@ -9192,7 +9210,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
         <v>651</v>
       </c>
@@ -9527,7 +9545,7 @@
       </c>
       <c r="P32" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
         <v>662</v>
       </c>
@@ -10053,27 +10071,27 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O9" activeCellId="0" pane="topLeft" sqref="O9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O12" activeCellId="0" pane="topLeft" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.8549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.87843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.76862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.56470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.85098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6745098039216"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.4117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6470588235294"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="11.8470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -10391,240 +10409,265 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+      <c r="A9" s="15"/>
+      <c r="B9" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
-      <c r="A9" s="15"/>
       <c r="C9" s="16" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" s="16" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="16" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="16" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="16" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="16" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="11" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K9" s="11" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9" s="16" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
+      <c r="O9" s="25" t="s">
+        <v>183</v>
+      </c>
       <c r="P9" s="11"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
-      <c r="C10" s="6" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+      <c r="B10" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="12"/>
+      <c r="O10" s="12" t="s">
+        <v>676</v>
+      </c>
       <c r="P10" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+      <c r="B11" s="0" t="s">
+        <v>677</v>
+      </c>
       <c r="C11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="12"/>
+      <c r="O11" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="P11" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+      <c r="B12" s="0" t="s">
+        <v>678</v>
+      </c>
       <c r="C12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="P12" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+      <c r="B13" s="0" t="s">
+        <v>679</v>
+      </c>
       <c r="C13" s="6" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F13" s="6" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="6" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="6" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="6" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="12"/>
+      <c r="O13" s="12" t="s">
+        <v>680</v>
+      </c>
       <c r="P13" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
@@ -11630,21 +11673,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.8196078431372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.83137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.956862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.24313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13373,25 +13416,26 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="O1" activeCellId="0" pane="topLeft" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.3843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.4509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -13594,7 +13638,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
         <v>153</v>
       </c>
@@ -14063,7 +14107,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>173</v>
       </c>
@@ -14116,7 +14160,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>175</v>
       </c>
@@ -14169,7 +14213,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="B17" s="0" t="s">
         <v>176</v>
       </c>
@@ -14337,7 +14381,7 @@
       </c>
       <c r="P19" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.15" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>182</v>
       </c>
@@ -14394,7 +14438,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.15" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
         <v>185</v>
       </c>
@@ -14839,7 +14883,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="B29" s="0" t="s">
         <v>198</v>
       </c>
@@ -14896,7 +14940,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
         <v>200</v>
       </c>
@@ -15464,26 +15508,26 @@
   </sheetPr>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="P15" activeCellId="0" pane="topLeft" sqref="P15"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B19" activeCellId="0" pane="topLeft" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17537,21 +17581,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19606,25 +19650,25 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O27" activeCellId="0" pane="topLeft" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.8196078431372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.956862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.9843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21597,21 +21641,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.64313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.50980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.2745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.69803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.56470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.9843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23573,24 +23617,24 @@
   </sheetPr>
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B29" activeCellId="0" pane="topLeft" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.85098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.9843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27402,26 +27446,26 @@
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.9333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.92549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.83137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.1098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.98039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.85098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.96862745098039"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="507" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="8" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="438" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="683">
   <si>
     <t>Ngay</t>
   </si>
@@ -1669,6 +1669,9 @@
     <t>292 -&gt; 29 92</t>
   </si>
   <si>
+    <t>31 / 8</t>
+  </si>
+  <si>
     <t>232 xit</t>
   </si>
   <si>
@@ -2062,22 +2065,26 @@
     <t>63;49;70;86;85;85;54;53;89;15;00;24;12;48;94;65;47;60;89;40;09;33;51;61;18;23;13</t>
   </si>
   <si>
-    <t>06;40;38;43;95;17;88;89;81;44;70;12;36;19;78;61;06;84;92;86;41;65;62;71;89;10;81 </t>
+    <t>06;40;38;43;95;17;88;89;81;44;70;12;36;19;78;61;06;84;92;86;41;65;62;71;89;10;81</t>
   </si>
   <si>
     <t>99;98;42;99;16;98;03;90;29;97;98;46;38;29;55;25;60;40;62;28;50;92;17;94;19;21;75</t>
   </si>
   <si>
-    <t>292 &gt;</t>
+    <t>75;75;07;85;17;64;02;00;30;30;86;57;71;97;67;37;79;06;72;25;65;17;74;17;03;50;31</t>
+  </si>
+  <si>
+    <t>070 &gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="M/D/YYYY;@" numFmtId="165"/>
+    <numFmt formatCode="MM/DD/YY" numFmtId="166"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2225,7 +2232,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -2320,6 +2327,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -2376,21 +2384,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.83137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.956862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.24313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.87450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.29019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.5058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5746,26 +5754,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O34" activeCellId="0" pane="topLeft" sqref="O34"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B15" activeCellId="0" pane="topLeft" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.0941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.1764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -5875,7 +5883,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="12" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
@@ -5975,7 +5983,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>155</v>
@@ -6028,7 +6036,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
@@ -6094,7 +6102,7 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
         <v>4</v>
       </c>
-      <c r="E9" s="41" t="n">
+      <c r="E9" s="42" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
         <v>9</v>
       </c>
@@ -6122,7 +6130,7 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
         <v>4</v>
       </c>
-      <c r="L9" s="41" t="n">
+      <c r="L9" s="42" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
         <v>8</v>
       </c>
@@ -6185,7 +6193,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
@@ -6235,7 +6243,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
@@ -6285,7 +6293,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
@@ -6385,7 +6393,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
@@ -6435,7 +6443,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>155</v>
@@ -6592,7 +6600,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="18"/>
       <c r="O18" s="19" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>155</v>
@@ -6712,7 +6720,7 @@
         <v>30</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>155</v>
@@ -6772,12 +6780,12 @@
         <v>32</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="B22" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -6826,7 +6834,7 @@
         <v>34</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>155</v>
@@ -6834,7 +6842,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
       <c r="B23" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -6883,13 +6891,13 @@
         <v>37</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P23" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
       <c r="B24" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -6938,13 +6946,13 @@
         <v>40</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P24" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
       <c r="B25" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -6999,7 +7007,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -7048,12 +7056,12 @@
         <v>44</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -7102,12 +7110,12 @@
         <v>46</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -7156,7 +7164,7 @@
         <v>48</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>184</v>
@@ -7164,7 +7172,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="B29" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -7213,12 +7221,12 @@
         <v>50</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -7267,7 +7275,7 @@
         <v>50</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P30" s="14" t="s">
         <v>155</v>
@@ -7275,7 +7283,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="31">
       <c r="B31" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -7324,12 +7332,12 @@
         <v>53</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -7383,7 +7391,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
       <c r="B33" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -7432,16 +7440,16 @@
         <v>58</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P33" s="14"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -7495,7 +7503,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
       <c r="B35" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -7896,26 +7904,26 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O30" activeCellId="0" pane="topLeft" sqref="O30"/>
+      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.0941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.1764705882353"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.0039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7977,10 +7985,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>610</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -8025,13 +8033,13 @@
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P4" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C5" s="6" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -8076,13 +8084,13 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
       <c r="O5" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P5" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C6" s="6" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -8127,13 +8135,13 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P6" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -8178,13 +8186,13 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P7" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -8229,14 +8237,14 @@
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P8" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
       <c r="A9" s="15"/>
       <c r="B9" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C9" s="16" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -8281,7 +8289,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="18"/>
       <c r="O9" s="19" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="15"/>
@@ -8292,7 +8300,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -8340,12 +8348,12 @@
         <v>159</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -8390,13 +8398,13 @@
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -8441,13 +8449,13 @@
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P12" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -8492,13 +8500,13 @@
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P13" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -8543,13 +8551,13 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P14" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C15" s="6" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -8594,13 +8602,13 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P15" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C16" s="6" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -8651,10 +8659,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -8706,7 +8714,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -8751,7 +8759,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="18"/>
       <c r="O18" s="19" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>155</v>
@@ -8764,7 +8772,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -8822,7 +8830,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -8871,7 +8879,7 @@
         <v>30</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>155</v>
@@ -8879,10 +8887,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -8931,13 +8939,13 @@
         <v>32</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P21" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
       <c r="B22" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -8986,13 +8994,13 @@
         <v>34</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P22" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
       <c r="B23" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -9047,7 +9055,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="B24" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -9095,14 +9103,14 @@
       <c r="N24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="42" t="s">
-        <v>648</v>
+      <c r="O24" s="43" t="s">
+        <v>649</v>
       </c>
       <c r="P24" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
       <c r="B25" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -9157,7 +9165,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -9212,7 +9220,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -9261,7 +9269,7 @@
         <v>46</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>155</v>
@@ -9269,7 +9277,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -9318,16 +9326,16 @@
         <v>48</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="P28" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -9376,13 +9384,13 @@
         <v>50</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P29" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -9431,13 +9439,13 @@
         <v>50</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P30" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="B31" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -9485,14 +9493,14 @@
       <c r="N31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O31" s="42" t="s">
+      <c r="O31" s="43" t="s">
         <v>174</v>
       </c>
       <c r="P31" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -9541,16 +9549,16 @@
         <v>56</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P32" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -9599,7 +9607,7 @@
         <v>58</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>155</v>
@@ -9607,7 +9615,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="34">
       <c r="B34" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -9656,13 +9664,13 @@
         <v>50</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P34" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
       <c r="B35" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -9712,7 +9720,7 @@
       </c>
       <c r="O35" s="12"/>
       <c r="P35" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
@@ -10071,27 +10079,27 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O12" activeCellId="0" pane="topLeft" sqref="O12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.56470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.85098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.2823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -10145,7 +10153,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
       <c r="B3" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
@@ -10156,10 +10164,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C4" s="6" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -10204,13 +10212,13 @@
       <c r="M4" s="12"/>
       <c r="N4" s="5"/>
       <c r="O4" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P4" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C5" s="6" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -10255,13 +10263,13 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
       <c r="O5" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P5" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C6" s="6" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -10314,7 +10322,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -10359,13 +10367,13 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="12" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P7" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -10410,14 +10418,14 @@
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P8" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
       <c r="A9" s="15"/>
       <c r="B9" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C9" s="16" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -10468,7 +10476,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -10513,13 +10521,13 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="12" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="P10" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -10570,7 +10578,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C12" s="6" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -10621,7 +10629,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C13" s="6" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -10665,55 +10673,60 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="12" t="s">
-        <v>680</v>
+      <c r="O13" s="13" t="s">
+        <v>575</v>
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
-      <c r="C14" s="6" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+      <c r="B14" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="6" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="6" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="6" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="6" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="6" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K14" s="6" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="6" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="12" t="s">
+        <v>682</v>
+      </c>
       <c r="P14" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
@@ -10810,7 +10823,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -10999,7 +11012,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -11181,7 +11194,7 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="43"/>
+      <c r="O24" s="44"/>
       <c r="P24" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
@@ -11370,7 +11383,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -11506,7 +11519,7 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="43"/>
+      <c r="O31" s="44"/>
       <c r="P31" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
@@ -11557,7 +11570,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -11673,21 +11686,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.83137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.956862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.24313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.87450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.29019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.5058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13415,27 +13428,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O1" activeCellId="0" pane="topLeft" sqref="O1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O7" activeCellId="0" pane="topLeft" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.7490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.4509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.5411764705882"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15509,25 +15522,25 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B19" activeCellId="0" pane="topLeft" sqref="B19"/>
+      <selection activeCell="O20" activeCellId="0" pane="topLeft" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -16434,7 +16447,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>241</v>
       </c>
@@ -17581,21 +17594,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19650,25 +19663,25 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="O27" activeCellId="0" pane="topLeft" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.956862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.02352941176471"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.756862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21636,26 +21649,26 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.2745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.69803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.56470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.71764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.58039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.02352941176471"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.756862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23618,23 +23631,23 @@
   <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B29" activeCellId="0" pane="topLeft" sqref="B29"/>
+      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.02352941176471"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.756862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27446,26 +27459,26 @@
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A37" activeCellId="0" pane="topLeft" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.83137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.1098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.98039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.87450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.5098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.99607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.756862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27718,6 +27731,9 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="32" t="n">
+        <v>41282</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
@@ -27768,63 +27784,63 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="7">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="33" t="n">
+      <c r="C7" s="34" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
         <v>6</v>
       </c>
-      <c r="D7" s="34" t="n">
+      <c r="D7" s="35" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
         <v>8</v>
       </c>
-      <c r="E7" s="33" t="n">
+      <c r="E7" s="34" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
         <v>3</v>
       </c>
-      <c r="F7" s="33" t="n">
+      <c r="F7" s="34" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
         <v>4</v>
       </c>
-      <c r="G7" s="33" t="n">
+      <c r="G7" s="34" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
         <v>3</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="34" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
         <v>3</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="34" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
         <v>8</v>
       </c>
-      <c r="J7" s="33" t="n">
+      <c r="J7" s="34" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K7" s="33" t="n">
+      <c r="K7" s="34" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
         <v>7</v>
       </c>
-      <c r="L7" s="34" t="n">
+      <c r="L7" s="35" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
         <v>8</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37" t="s">
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38" t="s">
         <v>529</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
@@ -28227,61 +28243,61 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="39" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
         <v>8</v>
       </c>
-      <c r="D16" s="33" t="n">
+      <c r="D16" s="34" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
         <v>4</v>
       </c>
-      <c r="E16" s="33" t="n">
+      <c r="E16" s="34" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
         <v>2</v>
       </c>
-      <c r="F16" s="33" t="n">
+      <c r="F16" s="34" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
         <v>10</v>
       </c>
-      <c r="G16" s="33" t="n">
+      <c r="G16" s="34" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
         <v>3</v>
       </c>
-      <c r="H16" s="38" t="n">
+      <c r="H16" s="39" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
         <v>9</v>
       </c>
-      <c r="I16" s="33" t="n">
+      <c r="I16" s="34" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
         <v>2</v>
       </c>
-      <c r="J16" s="33" t="n">
+      <c r="J16" s="34" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K16" s="33" t="n">
+      <c r="K16" s="34" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
         <v>5</v>
       </c>
-      <c r="L16" s="38" t="n">
+      <c r="L16" s="39" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
         <v>7</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="39" t="s">
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="A17" s="7" t="n">
@@ -29314,6 +29330,9 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="s">
+        <v>547</v>
+      </c>
       <c r="B36" s="0" t="s">
         <v>65</v>
       </c>
@@ -29364,7 +29383,7 @@
         <v>66</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="37">
@@ -29455,10 +29474,10 @@
         <v>34</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="39">
@@ -29512,7 +29531,7 @@
         <v>69</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="40">
@@ -29566,7 +29585,7 @@
         <v>71</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P40" s="5" t="n">
         <v>595</v>
@@ -29623,7 +29642,7 @@
         <v>48</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="42">
@@ -29677,7 +29696,7 @@
         <v>74</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="43">
@@ -29731,7 +29750,7 @@
         <v>48</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P43" s="14" t="s">
         <v>155</v>
@@ -29788,7 +29807,7 @@
         <v>64</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="45">
@@ -29842,7 +29861,7 @@
         <v>81</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="46">
@@ -29896,7 +29915,7 @@
         <v>83</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="47">
@@ -29950,7 +29969,7 @@
         <v>44</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="48">
@@ -30004,7 +30023,7 @@
         <v>44</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P48" s="14" t="s">
         <v>155</v>
@@ -30064,7 +30083,7 @@
         <v>48</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P49" s="14" t="s">
         <v>155</v>
@@ -30121,7 +30140,7 @@
         <v>90</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="51">
@@ -30178,7 +30197,7 @@
         <v>93</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="52">
@@ -30235,7 +30254,7 @@
         <v>96</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="53">
@@ -30289,7 +30308,7 @@
         <v>98</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="54">
@@ -30343,7 +30362,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="55">
@@ -30395,7 +30414,7 @@
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="56">
@@ -30445,7 +30464,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="5"/>
       <c r="O56" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="57">
@@ -30495,7 +30514,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="5"/>
       <c r="O57" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="58">
@@ -30545,7 +30564,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="5"/>
       <c r="O58" s="12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P58" s="14" t="s">
         <v>155</v>
@@ -30598,7 +30617,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="5"/>
       <c r="O59" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
@@ -30648,7 +30667,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="5"/>
       <c r="O60" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P60" s="10" t="s">
         <v>155</v>
@@ -30701,7 +30720,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="5"/>
       <c r="O61" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="62">
@@ -30751,9 +30770,9 @@
       <c r="M62" s="4"/>
       <c r="N62" s="5"/>
       <c r="O62" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="P62" s="40" t="n">
+        <v>574</v>
+      </c>
+      <c r="P62" s="41" t="n">
         <v>62</v>
       </c>
     </row>
@@ -30804,7 +30823,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
       <c r="O63" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
@@ -30854,7 +30873,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
       <c r="O64" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P64" s="14" t="s">
         <v>155</v>
@@ -30907,7 +30926,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
       <c r="O65" s="12" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="66">
@@ -30957,7 +30976,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
       <c r="O66" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="67">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="8" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="438" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="195" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="686">
   <si>
     <t>Ngay</t>
   </si>
@@ -2074,7 +2074,16 @@
     <t>75;75;07;85;17;64;02;00;30;30;86;57;71;97;67;37;79;06;72;25;65;17;74;17;03;50;31</t>
   </si>
   <si>
-    <t>070 &gt;</t>
+    <t>070 &gt; xit</t>
+  </si>
+  <si>
+    <t>30;65;24;34;10;89;04;17;24;86;63;88;58;41;32;72;99;78;86;15;06;78;68;95;61;10;64</t>
+  </si>
+  <si>
+    <t>77;23;20;40;32;44;59;81;63;03;59;52;99;45;18;31;24;45;66;20;40;11;81;45;34;94;56</t>
+  </si>
+  <si>
+    <t>545 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2384,21 +2393,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.87450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.29019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.5058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.97647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.38039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.7411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5759,21 +5767,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.1764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7903,27 +7911,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.1764705882353"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.0039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10079,27 +10087,27 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O18" activeCellId="0" pane="topLeft" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.2823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.87843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.0078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.19607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.67450980392157"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.8823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -10724,101 +10732,111 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="13" t="s">
         <v>682</v>
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+      <c r="B15" s="0" t="s">
+        <v>683</v>
+      </c>
       <c r="C15" s="6" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="6" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="6" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" s="6" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J15" s="6" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L15" s="6" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="13" t="s">
+        <v>627</v>
+      </c>
       <c r="P15" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+      <c r="B16" s="0" t="s">
+        <v>684</v>
+      </c>
       <c r="C16" s="6" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16" s="6" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16" s="6" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="6" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="6" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="6" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="6" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="12"/>
+      <c r="O16" s="12" t="s">
+        <v>685</v>
+      </c>
       <c r="P16" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
@@ -11686,21 +11704,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.87450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.29019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.5058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.97647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.38039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.7411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13428,27 +13445,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O7" activeCellId="0" pane="topLeft" sqref="O7"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F21" activeCellId="0" pane="topLeft" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.7490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.4901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.5411764705882"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.721568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15521,26 +15538,26 @@
   </sheetPr>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O20" activeCellId="0" pane="topLeft" sqref="O20"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B23" activeCellId="0" pane="topLeft" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.243137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17594,21 +17611,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.67450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.243137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19668,20 +19685,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.10196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.756862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21649,26 +21666,26 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.71764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.58039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.443137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.61960784313725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.10196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.756862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23631,23 +23648,23 @@
   <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
+      <selection activeCell="B56" activeCellId="0" pane="topLeft" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.8862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.10196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.756862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27459,26 +27476,25 @@
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A37" activeCellId="0" pane="topLeft" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.87450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.5098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.99607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.97647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.3058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.05882352941176"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.756862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="195" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="91" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="690">
   <si>
     <t>Ngay</t>
   </si>
@@ -2083,7 +2083,19 @@
     <t>77;23;20;40;32;44;59;81;63;03;59;52;99;45;18;31;24;45;66;20;40;11;81;45;34;94;56</t>
   </si>
   <si>
-    <t>545 &gt;</t>
+    <t>545 &gt; 54</t>
+  </si>
+  <si>
+    <t>56;71;94;16;16;04;16;24;88;98;54;69;50;75;17;08;38;11;40;29;13;61;09;01;31;33;77</t>
+  </si>
+  <si>
+    <t>Nghi (161)</t>
+  </si>
+  <si>
+    <t>03;38;78;81;85;82;76;03;88;81;69;86;76;68;44;17;80;37;32;59;67;69;41;02;73;39;41 </t>
+  </si>
+  <si>
+    <t>383 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2393,20 +2405,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.97647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.38039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.7411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.55294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5767,21 +5780,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7916,22 +7929,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1960784313725"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10088,26 +10101,23 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O18" activeCellId="0" pane="topLeft" sqref="O18"/>
+      <selection activeCell="O19" activeCellId="0" pane="topLeft" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.0078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.19607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.67450980392157"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.3764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.22352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.70980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.0196078431373"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.9647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -10374,7 +10384,7 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="13" t="s">
         <v>673</v>
       </c>
       <c r="P7" s="2"/>
@@ -10839,101 +10849,110 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
         <v>635</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>686</v>
+      </c>
       <c r="C17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="13" t="s">
+        <v>687</v>
+      </c>
       <c r="P17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
       <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>688</v>
+      </c>
       <c r="C18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="11" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" s="11" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
+      <c r="O18" s="19" t="s">
+        <v>689</v>
+      </c>
       <c r="P18" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
@@ -11704,20 +11723,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.97647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.38039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.7411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.55294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13450,22 +13470,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.4901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.8588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.721568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.5294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15543,21 +15563,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.243137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17611,21 +17631,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.243137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19685,20 +19705,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.14117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.956862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21671,21 +21691,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.443137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.61960784313725"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.63529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.14117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.956862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23652,19 +23672,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.8862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.90588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.2941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.92549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.14117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.956862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27481,20 +27501,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.97647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.3058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.90588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.7019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.92549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.956862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="91" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="469" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="693">
   <si>
     <t>Ngay</t>
   </si>
@@ -2092,10 +2092,19 @@
     <t>Nghi (161)</t>
   </si>
   <si>
-    <t>03;38;78;81;85;82;76;03;88;81;69;86;76;68;44;17;80;37;32;59;67;69;41;02;73;39;41 </t>
-  </si>
-  <si>
-    <t>383 &gt;</t>
+    <t>03;38;78;81;85;82;76;03;88;81;69;86;76;68;44;17;80;37;32;59;67;69;41;02;73;39;41</t>
+  </si>
+  <si>
+    <t>383 &gt; xit</t>
+  </si>
+  <si>
+    <t>21;52;62;32;74;71;90;17;87;29;27;77;99;37;79;14;74;49;87;58;65;57;19;42;06;31;47</t>
+  </si>
+  <si>
+    <t>73;11;59;66;80;55;87;74;67;00;99;13;19;42;44;88;47;85;28;16;40;49;16;44;28;26;80</t>
+  </si>
+  <si>
+    <t>484 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2405,21 +2414,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.43137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.55294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.9019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.9764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5775,26 +5784,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B15" activeCellId="0" pane="topLeft" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7929,22 +7938,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.2588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10101,23 +10110,26 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O19" activeCellId="0" pane="topLeft" sqref="O19"/>
+      <selection activeCell="B25" activeCellId="0" pane="topLeft" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.3764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.22352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.70980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.7490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.25882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9098039215686"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -10211,7 +10223,7 @@
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="14" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
         <v>13</v>
       </c>
@@ -10219,7 +10231,7 @@
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="14" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
         <v>7</v>
       </c>
@@ -10246,7 +10258,7 @@
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="14" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
         <v>7</v>
       </c>
@@ -10254,7 +10266,7 @@
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="14" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
         <v>7</v>
       </c>
@@ -10301,7 +10313,7 @@
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="14" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
         <v>9</v>
       </c>
@@ -10313,7 +10325,7 @@
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
         <v>3</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="14" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
         <v>9</v>
       </c>
@@ -10362,7 +10374,7 @@
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="14" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
         <v>11</v>
       </c>
@@ -10405,7 +10417,7 @@
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="14" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
         <v>8</v>
       </c>
@@ -10413,7 +10425,7 @@
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="14" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
         <v>7</v>
       </c>
@@ -10453,7 +10465,7 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
         <v>3</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="42" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
         <v>10</v>
       </c>
@@ -10473,7 +10485,7 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
         <v>4</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="42" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
         <v>8</v>
       </c>
@@ -10496,7 +10508,7 @@
       <c r="B10" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="14" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
         <v>8</v>
       </c>
@@ -10520,7 +10532,7 @@
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
         <v>6</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="14" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
         <v>7</v>
       </c>
@@ -10563,7 +10575,7 @@
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
         <v>6</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="14" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
         <v>7</v>
       </c>
@@ -10579,11 +10591,11 @@
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="K11" s="6" t="n">
+      <c r="K11" s="14" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
         <v>7</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
         <v>5</v>
       </c>
@@ -10602,7 +10614,7 @@
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="14" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
         <v>9</v>
       </c>
@@ -10630,7 +10642,7 @@
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="14" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
         <v>10</v>
       </c>
@@ -10657,7 +10669,7 @@
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
         <v>4</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="14" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
         <v>8</v>
       </c>
@@ -10677,7 +10689,7 @@
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
         <v>4</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="6" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
         <v>3</v>
       </c>
@@ -10685,7 +10697,7 @@
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
         <v>5</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="14" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
         <v>14</v>
       </c>
@@ -10700,7 +10712,7 @@
       <c r="B14" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="14" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
         <v>9</v>
       </c>
@@ -10728,7 +10740,7 @@
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
         <v>5</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="14" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
         <v>14</v>
       </c>
@@ -10775,7 +10787,7 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
         <v>4</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="14" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
         <v>8</v>
       </c>
@@ -10783,7 +10795,7 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="14" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
         <v>9</v>
       </c>
@@ -10818,11 +10830,11 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
         <v>6</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="14" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
         <v>10</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="14" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
         <v>7</v>
       </c>
@@ -10860,7 +10872,7 @@
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
         <v>6</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="14" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
         <v>11</v>
       </c>
@@ -10903,7 +10915,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.85" outlineLevel="0" r="18">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>688</v>
@@ -10920,7 +10932,7 @@
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
         <v>3</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="42" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
         <v>7</v>
       </c>
@@ -10940,7 +10952,7 @@
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
         <v>7</v>
       </c>
-      <c r="K18" s="11" t="n">
+      <c r="K18" s="42" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
         <v>11</v>
       </c>
@@ -10950,101 +10962,111 @@
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="25" t="s">
         <v>689</v>
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+      <c r="B19" s="0" t="s">
+        <v>690</v>
+      </c>
       <c r="C19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" s="14" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="14" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="12"/>
+      <c r="O19" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="P19" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+      <c r="B20" s="0" t="s">
+        <v>691</v>
+      </c>
       <c r="C20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="14" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" s="14" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="12"/>
+      <c r="O20" s="12" t="s">
+        <v>692</v>
+      </c>
       <c r="P20" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
@@ -11723,21 +11745,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.43137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.55294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.9019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.9764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13465,27 +13487,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="F21" activeCellId="0" pane="topLeft" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.8588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.2313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8117647058824"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.5294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15558,26 +15580,26 @@
   </sheetPr>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B23" activeCellId="0" pane="topLeft" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17626,26 +17648,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19705,20 +19727,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.9019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.1843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.956862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21686,26 +21708,26 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.78039215686274"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.63529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.2274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.65490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.1843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.956862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23672,19 +23694,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.2941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.92549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.7098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.94509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.1843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.956862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27496,26 +27518,26 @@
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A37" activeCellId="0" pane="topLeft" sqref="A37"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I10" activeCellId="0" pane="topLeft" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.7019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.92549019607843"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.7450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.94509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.30196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.46274509803922"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.956862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="469" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="220" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="695">
   <si>
     <t>Ngay</t>
   </si>
@@ -2104,7 +2104,13 @@
     <t>73;11;59;66;80;55;87;74;67;00;99;13;19;42;44;88;47;85;28;16;40;49;16;44;28;26;80</t>
   </si>
   <si>
-    <t>484 &gt;</t>
+    <t>484 &gt; xit</t>
+  </si>
+  <si>
+    <t>76;74;25;86;45;24;94;86;65;07;67;65;91;94;87;53;26;02;30;08;09;04;67;22;11;71;01 </t>
+  </si>
+  <si>
+    <t>676 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2414,21 +2420,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.9764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.121568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.3019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.52549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.62352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.53725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.0941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5789,21 +5795,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7938,22 +7944,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.2588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.321568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10109,27 +10115,27 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B25" activeCellId="0" pane="topLeft" sqref="B25"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B26" activeCellId="0" pane="topLeft" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.7490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.25882352941177"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.1921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.84313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.1176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.29411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.22745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9098039215686"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.043137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11064,58 +11070,63 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="13" t="s">
         <v>692</v>
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
         <v>642</v>
       </c>
+      <c r="B21" s="0" t="s">
+        <v>693</v>
+      </c>
       <c r="C21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="12"/>
+      <c r="O21" s="12" t="s">
+        <v>694</v>
+      </c>
       <c r="P21" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
@@ -11745,21 +11756,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.9764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.121568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.3019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.52549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.62352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.53725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.0941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13492,22 +13503,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.2313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15585,21 +15596,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17653,21 +17664,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19727,20 +19738,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.3019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.21960784313725"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21713,21 +21724,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.2274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.65490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.67058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.21960784313725"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23694,19 +23705,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.7098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.94509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.1176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.96078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.21960784313725"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27523,21 +27534,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.7450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.94509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.30196078431373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.46274509803922"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.121568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.1058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.96078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.32941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.49019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="220" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="515" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="698">
   <si>
     <t>Ngay</t>
   </si>
@@ -2107,10 +2107,19 @@
     <t>484 &gt; xit</t>
   </si>
   <si>
-    <t>76;74;25;86;45;24;94;86;65;07;67;65;91;94;87;53;26;02;30;08;09;04;67;22;11;71;01 </t>
-  </si>
-  <si>
-    <t>676 &gt;</t>
+    <t>76;74;25;86;45;24;94;86;65;07;67;65;91;94;87;53;26;02;30;08;09;04;67;22;11;71;01</t>
+  </si>
+  <si>
+    <t>676 &gt; xit</t>
+  </si>
+  <si>
+    <t>42;39;11;62;47;18;81;46;59;29;52;02;15;84;16;02;95;41;49;78;50;18;35;71;34;18;37</t>
+  </si>
+  <si>
+    <t>141 &gt;</t>
+  </si>
+  <si>
+    <t>84,</t>
   </si>
 </sst>
 </file>
@@ -2420,21 +2429,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.121568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.3019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.52549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.62352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.53725490196078"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.0941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.56862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.65882352941177"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.2117647058823"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5795,21 +5804,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7944,22 +7953,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.321568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.3843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10115,27 +10124,27 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B26" activeCellId="0" pane="topLeft" sqref="B26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I23" activeCellId="0" pane="topLeft" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.1176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.29411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.22745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.4901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.32941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.81960784313725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11073,7 +11082,9 @@
       <c r="O20" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" s="10" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
@@ -11106,11 +11117,11 @@
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
         <v>5</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="14" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
         <v>8</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="14" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
         <v>7</v>
       </c>
@@ -11124,56 +11135,63 @@
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="13" t="s">
         <v>694</v>
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+      <c r="B22" s="0" t="s">
+        <v>695</v>
+      </c>
       <c r="C22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="14" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" s="14" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="2"/>
+      <c r="O22" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
       <c r="C23" s="6" t="n">
@@ -11756,21 +11774,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.121568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.3019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.52549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.62352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.53725490196078"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.0941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.56862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.65882352941177"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.2117647058823"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13503,22 +13521,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.6"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.9803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.0823529411765"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15596,21 +15614,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17664,21 +17682,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19738,20 +19756,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.3019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.25882352941177"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21724,21 +21742,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.67058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.69019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.25882352941177"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23705,19 +23723,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.1176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.96078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.5333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.98039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.25882352941177"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -24595,7 +24613,7 @@
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
       <c r="B18" s="0" t="s">
         <v>452</v>
       </c>
@@ -27534,21 +27552,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.121568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.1058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.96078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.32941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.49019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.4745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.10588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.98039215686275"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.36862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.51764705882353"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.0901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="515" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="242" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="700">
   <si>
     <t>Ngay</t>
   </si>
@@ -2116,10 +2116,16 @@
     <t>42;39;11;62;47;18;81;46;59;29;52;02;15;84;16;02;95;41;49;78;50;18;35;71;34;18;37</t>
   </si>
   <si>
-    <t>141 &gt;</t>
+    <t>141 &gt; 41</t>
   </si>
   <si>
     <t>84,</t>
+  </si>
+  <si>
+    <t>78;54;63;82;31;04;06;99;84;27;42;41;84;25;29;21;01;82;56;32;28;87;86;78;47;68;56 </t>
+  </si>
+  <si>
+    <t>282 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2429,21 +2435,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.56862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.65882352941177"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.25882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.25882352941177"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.2117647058823"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5804,21 +5809,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7953,22 +7957,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.3843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.4470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10124,27 +10127,27 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I23" activeCellId="0" pane="topLeft" sqref="I23"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O24" activeCellId="0" pane="topLeft" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.4901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.32941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.26274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.8588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.36862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.29803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.41176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.0196078431373"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.0823529411765"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11193,50 +11196,55 @@
         <v>697</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+      <c r="B23" s="0" t="s">
+        <v>698</v>
+      </c>
       <c r="C23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="14" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" s="14" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="12" t="s">
+        <v>699</v>
+      </c>
       <c r="P23" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
@@ -11774,21 +11782,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.56862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.65882352941177"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.25882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.25882352941177"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.2117647058823"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13521,22 +13528,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.9803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.0823529411765"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.1725490196078"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15614,21 +15620,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.6509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17682,21 +17687,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.89019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.5686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.6509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19756,20 +19760,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.30196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21742,21 +21745,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.83529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.69019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.85098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.70980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.30196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23723,19 +23725,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.5333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.98039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.25882352941177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.9490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.99607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.30196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27552,21 +27553,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.98039215686275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.36862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.51764705882353"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.8392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.99607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.40392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.54509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="242" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="398" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="702">
   <si>
     <t>Ngay</t>
   </si>
@@ -2122,10 +2122,16 @@
     <t>84,</t>
   </si>
   <si>
-    <t>78;54;63;82;31;04;06;99;84;27;42;41;84;25;29;21;01;82;56;32;28;87;86;78;47;68;56 </t>
-  </si>
-  <si>
-    <t>282 &gt;</t>
+    <t>78;54;63;82;31;04;06;99;84;27;42;41;84;25;29;21;01;82;56;32;28;87;86;78;47;68;56</t>
+  </si>
+  <si>
+    <t>21;21;97;74;00;44;67;85;39;02;68;52;76;83;49;37;25;78;31;01;88;50;41;94;25;38;34</t>
+  </si>
+  <si>
+    <t>55;22;17;63;60;80;37;05;35;61;64;22;25;88;13;55;94;92;04;19;02;57;94;94;09;74;31</t>
+  </si>
+  <si>
+    <t>252 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2435,20 +2441,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.73333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.4549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5809,20 +5816,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7957,21 +7965,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.4470588235294"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8901960784314"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.5137254901961"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10127,27 +10136,27 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O24" activeCellId="0" pane="topLeft" sqref="O24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O27" activeCellId="0" pane="topLeft" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.8588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.36862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.29803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.2313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.40392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.33333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.89019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.44705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.0823529411765"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11242,101 +11251,113 @@
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="B24" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="P23" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="C24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" s="14" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" s="14" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+      <c r="O24" s="43" t="s">
+        <v>692</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+      <c r="B25" s="0" t="s">
+        <v>700</v>
+      </c>
       <c r="C25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" s="14" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" s="14" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="12"/>
+      <c r="O25" s="12" t="s">
+        <v>701</v>
+      </c>
       <c r="P25" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
@@ -11782,20 +11803,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.73333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.4549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13528,21 +13550,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.7411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.1725490196078"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.2745098039216"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15620,20 +15643,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.6509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17687,20 +17711,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.91764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.6509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19760,19 +19785,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.0980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.33725490196079"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21745,20 +21771,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.70980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.72549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.33725490196079"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23720,23 +23747,24 @@
   </sheetPr>
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B56" activeCellId="0" pane="topLeft" sqref="B56"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O61" activeCellId="0" pane="topLeft" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.9490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.99607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.3647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.0156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.33725490196079"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27548,25 +27576,26 @@
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="I10" activeCellId="0" pane="topLeft" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.8392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.99607843137255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.40392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.54509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.2078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.43137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.57254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="398" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="188" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="704">
   <si>
     <t>Ngay</t>
   </si>
@@ -2131,7 +2131,13 @@
     <t>55;22;17;63;60;80;37;05;35;61;64;22;25;88;13;55;94;92;04;19;02;57;94;94;09;74;31</t>
   </si>
   <si>
-    <t>252 &gt;</t>
+    <t>38;08;64;84;19;85;26;99;95;49;75;50;67;38;20;20;21;79;69;26;21;57;80;93;79;24;57</t>
+  </si>
+  <si>
+    <t>32;62;59;82;20;81;04;60;64;14;69;14;58;14;30;86;84;41;41;92;24;64;43;78;61;75;01</t>
+  </si>
+  <si>
+    <t>141 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2441,21 +2447,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.73333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.4549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.76862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5816,21 +5822,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7965,22 +7971,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8901960784314"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.5137254901961"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.5843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10136,27 +10142,27 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O27" activeCellId="0" pane="topLeft" sqref="O27"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O30" activeCellId="0" pane="topLeft" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.2313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.40392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.33333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.89019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.43137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.91764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1372549019608"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.2"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11355,101 +11361,113 @@
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="12" t="s">
+      <c r="O25" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+      <c r="B26" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="P25" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
       <c r="C26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" s="14" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+      <c r="O26" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+      <c r="B27" s="0" t="s">
+        <v>702</v>
+      </c>
       <c r="C27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="14" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="14" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="12"/>
+      <c r="O27" s="12" t="s">
+        <v>703</v>
+      </c>
       <c r="P27" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
@@ -11803,21 +11821,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.73333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.4549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.76862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13550,22 +13568,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.7411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.121568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.2745098039216"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.3725490196078"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15643,21 +15661,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17711,21 +17729,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.95686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19785,20 +19803,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.4941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.37647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21771,21 +21789,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.89019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.74509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.37647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23752,19 +23770,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.3647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.7803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.37647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27581,21 +27599,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.2078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.43137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.57254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.5803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.46666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.6"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="188" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="88" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="705">
   <si>
     <t>Ngay</t>
   </si>
@@ -2137,7 +2137,10 @@
     <t>32;62;59;82;20;81;04;60;64;14;69;14;58;14;30;86;84;41;41;92;24;64;43;78;61;75;01</t>
   </si>
   <si>
-    <t>141 &gt;</t>
+    <t>22;20;28;57;38;53;26;04;28;74;86;81;64;57;31;75;12;13;92;15;17;96;80;17;76;21;71 </t>
+  </si>
+  <si>
+    <t>121 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2447,21 +2450,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.76862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.76078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.80392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.6901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5822,21 +5821,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7971,22 +7970,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.5843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10143,26 +10142,26 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O30" activeCellId="0" pane="topLeft" sqref="O30"/>
+      <selection activeCell="J28" activeCellId="0" pane="topLeft" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.6"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.43137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.91764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.9803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.46666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.95686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.2"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.2627450980392"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11465,55 +11464,60 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="P27" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+      <c r="B28" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="P27" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
       <c r="C28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="14" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" s="14" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="12"/>
+      <c r="O28" s="12" t="s">
+        <v>704</v>
+      </c>
       <c r="P28" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
@@ -11821,21 +11825,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.76862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.76078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.80392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.6901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13568,22 +13568,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.121568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.5098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.3725490196078"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.4705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.1607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15661,21 +15661,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17729,21 +17729,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19803,20 +19803,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.41960784313726"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21789,21 +21789,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.89019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.74509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.41960784313726"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23770,19 +23770,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.7803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.2078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.41960784313726"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27599,21 +27599,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.5803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.6"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.9490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="88" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="41" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="706">
   <si>
     <t>Ngay</t>
   </si>
@@ -2137,10 +2137,13 @@
     <t>32;62;59;82;20;81;04;60;64;14;69;14;58;14;30;86;84;41;41;92;24;64;43;78;61;75;01</t>
   </si>
   <si>
-    <t>22;20;28;57;38;53;26;04;28;74;86;81;64;57;31;75;12;13;92;15;17;96;80;17;76;21;71 </t>
-  </si>
-  <si>
-    <t>121 &gt;</t>
+    <t>22;20;28;57;38;53;26;04;28;74;86;81;64;57;31;75;12;13;92;15;17;96;80;17;76;21;71</t>
+  </si>
+  <si>
+    <t>12;04;14;92;38;75;27;90;36;93;97;66;15;23;33;08;92;35;18;74;59;57;17;16;54;75;88 </t>
+  </si>
+  <si>
+    <t>353 &gt;</t>
   </si>
 </sst>
 </file>
@@ -2450,17 +2453,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.76078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.80392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.6901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.81176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.84313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.8078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5821,21 +5827,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7970,22 +7976,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1607843137255"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10142,26 +10148,26 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J28" activeCellId="0" pane="topLeft" sqref="J28"/>
+      <selection activeCell="O30" activeCellId="0" pane="topLeft" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.9803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.4078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.95686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.9921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.55686274509804"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.2627450980392"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.3176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11516,57 +11522,62 @@
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
       <c r="O28" s="12" t="s">
-        <v>704</v>
+        <v>405</v>
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
         <v>656</v>
       </c>
+      <c r="B29" s="0" t="s">
+        <v>704</v>
+      </c>
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" s="14" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" s="14" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="12"/>
+      <c r="O29" s="12" t="s">
+        <v>705</v>
+      </c>
       <c r="P29" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
@@ -11825,17 +11836,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.76078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.80392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.6901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.81176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.84313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.8078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13568,22 +13582,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.5098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.8980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.4705882352941"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.1607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.5647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15661,21 +15675,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17729,21 +17743,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19803,20 +19817,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.45490196078431"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21789,21 +21803,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.90588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.043137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.92549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.45490196078431"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
@@ -23770,19 +23784,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.2078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.22745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.6313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.45490196078431"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27599,21 +27613,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.9490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.49411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.321568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.65098039215686"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="41" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="5" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="718">
   <si>
     <t>Ngay</t>
   </si>
@@ -2086,6 +2086,9 @@
     <t>545 &gt; 54</t>
   </si>
   <si>
+    <t>14 / 12</t>
+  </si>
+  <si>
     <t>56;71;94;16;16;04;16;24;88;98;54;69;50;75;17;08;38;11;40;29;13;61;09;01;31;33;77</t>
   </si>
   <si>
@@ -2140,10 +2143,43 @@
     <t>22;20;28;57;38;53;26;04;28;74;86;81;64;57;31;75;12;13;92;15;17;96;80;17;76;21;71</t>
   </si>
   <si>
-    <t>12;04;14;92;38;75;27;90;36;93;97;66;15;23;33;08;92;35;18;74;59;57;17;16;54;75;88 </t>
-  </si>
-  <si>
-    <t>353 &gt;</t>
+    <t>26 / 12</t>
+  </si>
+  <si>
+    <t>12;04;14;92;38;75;27;90;36;93;97;66;15;23;33;08;92;35;18;74;59;57;17;16;54;75;88</t>
+  </si>
+  <si>
+    <t>74;50;59;50;38;60;87;30;22;45;77;98;68;24;76;32;81;40;56;98;88;87;63;86;44;05;66</t>
+  </si>
+  <si>
+    <t>686 &gt; 68 86</t>
+  </si>
+  <si>
+    <t>22;02;84;08;55;46;54;62;01;65;24;49;86;37;68;88;95;11;58;03;43;78;20;44;22;16;50</t>
+  </si>
+  <si>
+    <t>87;25;98;99;87;56;33;74;21;86;74;47;31;30;34;37;39;36;66;34;54;29;15;62;67;92;38</t>
+  </si>
+  <si>
+    <t>373 &gt; xit</t>
+  </si>
+  <si>
+    <t>06;01;55;76;64;68;15;71;91;74;90;52;64;40;66;19;68;82;64;20;95;79;35;78;00;67;63</t>
+  </si>
+  <si>
+    <t>060 &gt; xit</t>
+  </si>
+  <si>
+    <t>31 / 12</t>
+  </si>
+  <si>
+    <t>22;33;63;98;72;14;73;68;38;61;09;19;99;53;87;47;22;94;78;75;39;31;81;42;35;26;08</t>
+  </si>
+  <si>
+    <t>232 &gt; 23 23 32</t>
+  </si>
+  <si>
+    <t>32;51;80;17;58;49;06;23;35;97;80;30;55;72;48;19;41;23;94;62;14;63;37;59;29;46;98</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2337,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -2428,7 +2464,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -2453,20 +2488,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.81176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.84313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.8078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.9372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.94901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.1607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5827,21 +5861,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.2470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.4313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -7976,22 +8010,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.2470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1607843137255"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.7294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.4313725490196"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10145,29 +10179,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O30" activeCellId="0" pane="topLeft" sqref="O30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.49411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.44313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.5098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.60392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.55294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.09803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.3176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5098039215686"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.8509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -10901,10 +10935,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -10949,14 +10983,14 @@
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="13" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.85" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C18" s="16" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -11001,13 +11035,13 @@
       <c r="M18" s="17"/>
       <c r="N18" s="18"/>
       <c r="O18" s="25" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="P18" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C19" s="6" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -11058,7 +11092,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -11103,18 +11137,15 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="13" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P20" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
-        <v>642</v>
-      </c>
       <c r="B21" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -11159,13 +11190,13 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="13" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P21" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
       <c r="B22" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -11210,15 +11241,15 @@
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
       <c r="O22" s="12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
       <c r="B23" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -11269,7 +11300,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="B24" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -11314,7 +11345,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
       <c r="O24" s="43" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>184</v>
@@ -11322,7 +11353,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
       <c r="B25" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -11373,7 +11404,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -11426,7 +11457,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -11477,7 +11508,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -11528,10 +11559,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -11575,243 +11606,315 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="12" t="s">
-        <v>705</v>
+      <c r="O29" s="13" t="s">
+        <v>573</v>
       </c>
       <c r="P29" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+      <c r="B30" s="0" t="s">
+        <v>707</v>
+      </c>
       <c r="C30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" s="14" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" s="14" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="12"/>
+      <c r="O30" s="12" t="s">
+        <v>708</v>
+      </c>
       <c r="P30" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="B31" s="0" t="s">
+        <v>709</v>
+      </c>
       <c r="C31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="14" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="14" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="44"/>
+      <c r="O31" s="43" t="s">
+        <v>600</v>
+      </c>
       <c r="P31" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+      <c r="B32" s="0" t="s">
+        <v>710</v>
+      </c>
       <c r="C32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" s="14" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J32" s="14" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="12"/>
+      <c r="O32" s="13" t="s">
+        <v>711</v>
+      </c>
       <c r="P32" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="C33" s="6" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+      <c r="B33" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" s="14" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" s="14" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="12"/>
+      <c r="O33" s="13" t="s">
+        <v>713</v>
+      </c>
       <c r="P33" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="34">
+      <c r="A34" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>715</v>
+      </c>
       <c r="C34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="14" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" s="14" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="2"/>
+      <c r="O34" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+      <c r="B35" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L35" s="6" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11836,20 +11939,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.81176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.84313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.8078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.9372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.94901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.92549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.1607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13582,22 +13684,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.8980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.5647058823529"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.2509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8627450980392"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.521568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15675,21 +15777,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.2470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.2313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17743,21 +17845,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.06274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.2470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.2313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19817,20 +19919,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.9372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57254901960784"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21803,24 +21905,24 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.043137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.92549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.78039215686274"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.98039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57254901960784"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23784,19 +23886,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.22745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.6313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.33333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.9254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57254901960784"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27613,21 +27715,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.321568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.4627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.44705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="5" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="498" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -2488,19 +2488,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.9372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.94901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.1607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.2862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5861,21 +5862,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.2470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.6705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.4313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.521568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -8010,22 +8011,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.2470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.6705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.4313725490196"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.9372549019608"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.521568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.0078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10181,27 +10182,25 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
+      <selection activeCell="B40" activeCellId="0" pane="topLeft" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.5098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.60392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.55294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.26274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.09803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.8980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.29803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.13725490196079"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5098039215686"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.8509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5725490196078"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.9411764705882"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11939,19 +11938,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.9372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.94901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.1607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.2862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13684,22 +13684,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.4745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8627450980392"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.521568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9607843137255"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15777,21 +15777,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.2470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.6705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.2313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.321568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17845,21 +17845,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.2470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.6705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.2313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.321568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19919,20 +19919,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.9372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.61176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21905,21 +21905,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.2705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.98039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.6862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.99607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.85098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.61176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -23886,19 +23886,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.33333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.9254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.3607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.61176470588235"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27715,21 +27715,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.4627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.8509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.67450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="498" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="9" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="454" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -2483,25 +2483,24 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.2862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.5411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5857,26 +5856,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B15" activeCellId="0" pane="topLeft" sqref="B15"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O37" activeCellId="0" pane="topLeft" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.6705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.5294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.521568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -8006,27 +8005,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O37" activeCellId="0" pane="topLeft" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.6705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.5294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.521568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.0078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.1529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10182,25 +10181,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100">
-      <selection activeCell="B40" activeCellId="0" pane="topLeft" sqref="B40"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O26" activeCellId="0" pane="topLeft" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.8980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.29803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.13725490196079"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.678431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.70980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.65882352941177"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.75686274509804"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5725490196078"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11933,25 +11934,24 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.2862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.5411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13679,27 +13679,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F21" activeCellId="0" pane="topLeft" sqref="F21"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O36" activeCellId="0" pane="topLeft" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.2666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9607843137255"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1607843137255"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15772,26 +15772,26 @@
   </sheetPr>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B23" activeCellId="0" pane="topLeft" sqref="B23"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O29" activeCellId="0" pane="topLeft" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.6705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.5294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.321568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17840,26 +17840,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O37" activeCellId="0" pane="topLeft" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.6705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.5294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.321568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19914,25 +19914,25 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O27" activeCellId="0" pane="topLeft" sqref="O27"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O8" activeCellId="0" pane="topLeft" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.70196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21900,26 +21900,26 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
       <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.6862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.99607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.89019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.70196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -23881,24 +23881,24 @@
   </sheetPr>
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O61" activeCellId="0" pane="topLeft" sqref="O61"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O24" activeCellId="0" pane="topLeft" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.37254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.3607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.83921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.2470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.70196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27710,26 +27710,26 @@
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I10" activeCellId="0" pane="topLeft" sqref="I10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O58" activeCellId="0" pane="topLeft" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.8509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.67450980392157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.55686274509804"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="454" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="7" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="354" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -2488,19 +2488,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.5411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.6666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5856,26 +5857,26 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O37" activeCellId="0" pane="topLeft" sqref="O37"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O36" activeCellId="0" pane="topLeft" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.5294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.7019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -8005,27 +8006,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O37" activeCellId="0" pane="topLeft" sqref="O37"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.5294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.7019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.1529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.2274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10186,22 +10187,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.678431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.70980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.65882352941177"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.37254901960784"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.7921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7607843137255"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11939,19 +11940,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.70196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.5411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.6666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13684,22 +13686,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.2666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1607843137255"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.7960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.2666666666667"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15777,21 +15779,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.5294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17845,21 +17847,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.28235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.5294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19919,20 +19921,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.74509803921569"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21905,21 +21907,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.5176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.89019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.74509803921569"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -23881,24 +23883,24 @@
   </sheetPr>
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O24" activeCellId="0" pane="topLeft" sqref="O24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="K2" activeCellId="0" pane="topLeft" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.44313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.2470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.21960784313726"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.6901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.74509803921569"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -23942,11 +23944,11 @@
       <c r="O1" s="12"/>
       <c r="P1" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="2">
       <c r="B2" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="14" t="n">
         <f aca="false">SUM((LEN(B2)-LEN(SUBSTITUTE(B2,"0",""))))</f>
         <v>7</v>
       </c>
@@ -23954,7 +23956,7 @@
         <f aca="false">SUM((LEN(B2)-LEN(SUBSTITUTE(B2,"1",""))))</f>
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="14" t="n">
         <f aca="false">SUM((LEN(B2)-LEN(SUBSTITUTE(B2,"2",""))))</f>
         <v>10</v>
       </c>
@@ -23978,7 +23980,7 @@
         <f aca="false">SUM((LEN(B2)-LEN(SUBSTITUTE(B2,"7",""))))</f>
         <v>3</v>
       </c>
-      <c r="K2" s="14" t="n">
+      <c r="K2" s="6" t="n">
         <f aca="false">SUM((LEN(B2)-LEN(SUBSTITUTE(B2,"8",""))))</f>
         <v>3</v>
       </c>
@@ -25356,11 +25358,11 @@
         <v>469</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
       <c r="B29" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="C29" s="24" t="n">
+      <c r="C29" s="14" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
         <v>9</v>
       </c>
@@ -25368,7 +25370,7 @@
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
         <v>1</v>
       </c>
-      <c r="E29" s="24" t="n">
+      <c r="E29" s="14" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
         <v>10</v>
       </c>
@@ -27710,26 +27712,26 @@
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O58" activeCellId="0" pane="topLeft" sqref="O58"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O71" activeCellId="0" pane="topLeft" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="354" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="502" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -2488,20 +2488,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.6666666666667"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.0274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.7960784313725"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5857,26 +5856,25 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O36" activeCellId="0" pane="topLeft" sqref="O36"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="B30" activeCellId="0" pane="topLeft" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.7960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -8011,22 +8009,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.7960784313725"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.2274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.2980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -10187,22 +10184,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.69803921568628"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.4745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.73333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.28235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.82745098039216"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7607843137255"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.2666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11940,20 +11937,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.74509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.6666666666667"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.0274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.7960784313725"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13686,22 +13682,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.2666666666667"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.9843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15779,21 +15774,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17847,21 +17841,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19921,20 +19914,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.0274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.7921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21902,26 +21894,25 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.9372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.90588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.3607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.92549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.7921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -23883,24 +23874,23 @@
   </sheetPr>
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="K2" activeCellId="0" pane="topLeft" sqref="K2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="B53" activeCellId="0" pane="topLeft" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.6901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.24705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.1333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.27450980392157"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.7921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -23944,7 +23934,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
       <c r="B2" s="0" t="s">
         <v>421</v>
       </c>
@@ -25358,7 +25348,7 @@
         <v>469</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="B29" s="0" t="s">
         <v>470</v>
       </c>
@@ -27712,26 +27702,25 @@
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O71" activeCellId="0" pane="topLeft" sqref="O71"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="B66" activeCellId="0" pane="topLeft" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.0156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.20392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.84313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.4039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.81960784313725"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="502" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="371" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -2488,19 +2488,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.0274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.7960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5861,20 +5862,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -8004,26 +8006,27 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O33" activeCellId="0" pane="topLeft" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.2980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.3725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -9318,7 +9321,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
         <v>652</v>
       </c>
@@ -9368,7 +9371,7 @@
       <c r="N27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="20" t="s">
         <v>653</v>
       </c>
       <c r="P27" s="14" t="s">
@@ -10179,27 +10182,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O26" activeCellId="0" pane="topLeft" sqref="O26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O24" activeCellId="0" pane="topLeft" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.73333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.44313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.28235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.8705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.81960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.76862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.86274509803922"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -11813,7 +11816,7 @@
       </c>
       <c r="P33" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.95" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
         <v>714</v>
       </c>
@@ -11862,7 +11865,7 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="12" t="s">
+      <c r="O34" s="20" t="s">
         <v>716</v>
       </c>
       <c r="P34" s="14" t="s">
@@ -11937,19 +11940,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.0274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.7960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -13682,21 +13686,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.4823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.9843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.4666666666667"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.0823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -15774,20 +15779,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6823529411765"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -17841,20 +17847,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.35294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6823529411765"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -19914,19 +19921,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.0274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.83529411764706"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -21894,25 +21902,26 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
       <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.3607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.92549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.94509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.83529411764706"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -23879,18 +23888,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.51764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.1333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.55294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.5764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.83529411764706"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
@@ -27707,20 +27717,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.4039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.22352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.7960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1058823529412"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">

--- a/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE 2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="371" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="371" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="D_T9" sheetId="1" state="visible" r:id="rId2"/>
@@ -2187,94 +2187,94 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="M/D/YYYY;@" numFmtId="165"/>
-    <numFmt formatCode="MM/DD/YY" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="M/D/YYYY;@"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="12">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="000000FF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00FF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00FF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00FF0000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="000000FF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="000000FF"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2286,25 +2286,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFCC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0033CCCC"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2313,165 +2313,215 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="44">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2479,32 +2529,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.17857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.83673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.82142857142857"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.83673469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.9285714285714"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2543,7 +2596,7 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
@@ -2590,7 +2643,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
@@ -2637,7 +2690,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
@@ -2684,7 +2737,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
@@ -2731,7 +2784,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
@@ -2778,7 +2831,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>17</v>
       </c>
@@ -2825,7 +2878,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
@@ -2872,7 +2925,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
@@ -2919,7 +2972,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>20</v>
       </c>
@@ -2966,7 +3019,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>21</v>
       </c>
@@ -3013,7 +3066,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>22</v>
       </c>
@@ -3060,7 +3113,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>23</v>
       </c>
@@ -3107,7 +3160,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>24</v>
       </c>
@@ -3154,7 +3207,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>25</v>
       </c>
@@ -3201,7 +3254,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
@@ -3248,7 +3301,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>41616</v>
       </c>
@@ -3300,7 +3353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>29</v>
       </c>
@@ -3351,7 +3404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>31</v>
       </c>
@@ -3402,7 +3455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>33</v>
       </c>
@@ -3453,7 +3506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>35</v>
       </c>
@@ -3504,7 +3557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>38</v>
       </c>
@@ -3555,7 +3608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>41</v>
       </c>
@@ -3606,7 +3659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>43</v>
       </c>
@@ -3657,7 +3710,7 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>45</v>
       </c>
@@ -3708,7 +3761,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>47</v>
       </c>
@@ -3759,7 +3812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>49</v>
       </c>
@@ -3810,7 +3863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>51</v>
       </c>
@@ -3861,7 +3914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>52</v>
       </c>
@@ -3912,7 +3965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>54</v>
       </c>
@@ -3963,7 +4016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>57</v>
       </c>
@@ -4014,7 +4067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>59</v>
       </c>
@@ -4065,7 +4118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>60</v>
       </c>
@@ -4116,7 +4169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
         <v>61</v>
       </c>
@@ -4167,7 +4220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>63</v>
       </c>
@@ -4218,7 +4271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
         <v>65</v>
       </c>
@@ -4269,7 +4322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
@@ -4305,7 +4358,7 @@
       </c>
       <c r="N37" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>67</v>
       </c>
@@ -4357,7 +4410,7 @@
       </c>
       <c r="O38" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
         <v>68</v>
       </c>
@@ -4408,7 +4461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
         <v>70</v>
       </c>
@@ -4460,7 +4513,7 @@
       </c>
       <c r="O40" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
         <v>72</v>
       </c>
@@ -4511,7 +4564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
         <v>73</v>
       </c>
@@ -4562,7 +4615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>75</v>
       </c>
@@ -4613,7 +4666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>77</v>
       </c>
@@ -4665,7 +4718,7 @@
       </c>
       <c r="O44" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>79</v>
       </c>
@@ -4716,7 +4769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>82</v>
       </c>
@@ -4768,7 +4821,7 @@
       </c>
       <c r="O46" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
         <v>84</v>
       </c>
@@ -4819,7 +4872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
         <v>85</v>
       </c>
@@ -4870,7 +4923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>41617</v>
       </c>
@@ -4924,7 +4977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
         <v>88</v>
       </c>
@@ -4976,7 +5029,7 @@
       </c>
       <c r="O50" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>91</v>
       </c>
@@ -5030,7 +5083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>94</v>
       </c>
@@ -5084,7 +5137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
         <v>97</v>
       </c>
@@ -5135,7 +5188,7 @@
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>99</v>
       </c>
@@ -5186,7 +5239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
         <v>101</v>
       </c>
@@ -5237,7 +5290,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
         <v>102</v>
       </c>
@@ -5288,7 +5341,7 @@
         <v>103</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
         <v>104</v>
       </c>
@@ -5339,7 +5392,7 @@
         <v>105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
         <v>106</v>
       </c>
@@ -5390,7 +5443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>107</v>
       </c>
@@ -5444,7 +5497,7 @@
         <v>109</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
         <v>110</v>
       </c>
@@ -5495,7 +5548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
         <v>111</v>
       </c>
@@ -5546,7 +5599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
         <v>112</v>
       </c>
@@ -5597,7 +5650,7 @@
         <v>113</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
         <v>114</v>
       </c>
@@ -5644,7 +5697,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
         <v>115</v>
       </c>
@@ -5691,7 +5744,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
         <v>116</v>
       </c>
@@ -5738,7 +5791,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
         <v>117</v>
       </c>
@@ -5785,7 +5838,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
         <v>118</v>
       </c>
@@ -5832,7 +5885,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
         <v>119</v>
       </c>
@@ -5842,7 +5895,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5853,33 +5906,38 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="B30" activeCellId="0" pane="topLeft" sqref="B30"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.77040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68877551020408"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9897959183673"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5919,7 +5977,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>88</v>
       </c>
@@ -5929,14 +5987,14 @@
       <c r="N2" s="5"/>
       <c r="O2" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>120</v>
       </c>
@@ -5989,7 +6047,7 @@
         <v>578</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>122</v>
       </c>
@@ -6039,7 +6097,7 @@
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>123</v>
       </c>
@@ -6092,7 +6150,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>125</v>
       </c>
@@ -6142,7 +6200,7 @@
         <v>580</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>127</v>
       </c>
@@ -6192,7 +6250,7 @@
         <v>263</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="0" t="s">
         <v>128</v>
@@ -6249,7 +6307,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>130</v>
       </c>
@@ -6299,7 +6357,7 @@
         <v>581</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>131</v>
       </c>
@@ -6349,7 +6407,7 @@
         <v>582</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>133</v>
       </c>
@@ -6399,7 +6457,7 @@
         <v>583</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>134</v>
       </c>
@@ -6449,7 +6507,7 @@
         <v>461</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>135</v>
       </c>
@@ -6499,7 +6557,7 @@
         <v>584</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>137</v>
       </c>
@@ -6552,7 +6610,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>138</v>
       </c>
@@ -6602,7 +6660,7 @@
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>140</v>
       </c>
@@ -6655,7 +6713,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>141</v>
@@ -6714,7 +6772,7 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>142</v>
       </c>
@@ -6772,7 +6830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>144</v>
       </c>
@@ -6829,7 +6887,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>145</v>
       </c>
@@ -6886,7 +6944,7 @@
         <v>588</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>589</v>
       </c>
@@ -6943,7 +7001,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>591</v>
       </c>
@@ -6998,7 +7056,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>592</v>
       </c>
@@ -7053,7 +7111,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>594</v>
       </c>
@@ -7108,7 +7166,7 @@
       </c>
       <c r="P25" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>595</v>
       </c>
@@ -7162,7 +7220,7 @@
         <v>596</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>597</v>
       </c>
@@ -7216,7 +7274,7 @@
         <v>598</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>599</v>
       </c>
@@ -7273,7 +7331,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>601</v>
       </c>
@@ -7327,7 +7385,7 @@
         <v>602</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>603</v>
       </c>
@@ -7384,7 +7442,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>605</v>
       </c>
@@ -7438,7 +7496,7 @@
         <v>606</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>607</v>
       </c>
@@ -7492,7 +7550,7 @@
         <v>183</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>608</v>
       </c>
@@ -7547,7 +7605,7 @@
       </c>
       <c r="P33" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>609</v>
       </c>
@@ -7604,7 +7662,7 @@
         <v>215</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>611</v>
       </c>
@@ -7656,7 +7714,7 @@
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="6" t="n">
         <f aca="false">SUM((LEN(B36)-LEN(SUBSTITUTE(B36,"0",""))))</f>
         <v>0</v>
@@ -7705,7 +7763,7 @@
       </c>
       <c r="O36" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="6" t="n">
         <f aca="false">SUM((LEN(B37)-LEN(SUBSTITUTE(B37,"0",""))))</f>
         <v>0</v>
@@ -7754,7 +7812,7 @@
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="6" t="n">
         <f aca="false">SUM((LEN(B38)-LEN(SUBSTITUTE(B38,"0",""))))</f>
         <v>0</v>
@@ -7803,7 +7861,7 @@
       </c>
       <c r="O38" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
@@ -7840,7 +7898,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="6" t="n">
         <f aca="false">SUM((LEN(B40)-LEN(SUBSTITUTE(B40,"0",""))))</f>
         <v>0</v>
@@ -7890,7 +7948,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="6" t="n">
         <f aca="false">SUM((LEN(B41)-LEN(SUBSTITUTE(B41,"0",""))))</f>
         <v>0</v>
@@ -7939,7 +7997,7 @@
       </c>
       <c r="O41" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="6" t="n">
         <f aca="false">SUM((LEN(B42)-LEN(SUBSTITUTE(B42,"0",""))))</f>
         <v>0</v>
@@ -7991,7 +8049,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8002,34 +8060,39 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O33" activeCellId="0" pane="topLeft" sqref="O33"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.77040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68877551020408"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.3725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9897959183673"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.3724489795918"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8070,7 +8133,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -8078,7 +8141,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
       <c r="M3" s="4"/>
@@ -8086,7 +8149,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>612</v>
       </c>
@@ -8140,7 +8203,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>614</v>
       </c>
@@ -8191,7 +8254,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>615</v>
       </c>
@@ -8242,7 +8305,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>617</v>
       </c>
@@ -8293,7 +8356,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>619</v>
       </c>
@@ -8344,7 +8407,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="0" t="s">
         <v>621</v>
@@ -8401,7 +8464,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>623</v>
       </c>
@@ -8454,7 +8517,7 @@
         <v>624</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>625</v>
       </c>
@@ -8505,7 +8568,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>626</v>
       </c>
@@ -8556,7 +8619,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>628</v>
       </c>
@@ -8607,7 +8670,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>630</v>
       </c>
@@ -8658,7 +8721,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>632</v>
       </c>
@@ -8709,7 +8772,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>634</v>
       </c>
@@ -8760,7 +8823,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>635</v>
       </c>
@@ -8814,7 +8877,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>637</v>
@@ -8873,7 +8936,7 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>639</v>
       </c>
@@ -8931,7 +8994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>640</v>
       </c>
@@ -8988,7 +9051,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>642</v>
       </c>
@@ -9046,7 +9109,7 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>645</v>
       </c>
@@ -9101,7 +9164,7 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>647</v>
       </c>
@@ -9156,7 +9219,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>648</v>
       </c>
@@ -9211,7 +9274,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>650</v>
       </c>
@@ -9266,7 +9329,7 @@
       </c>
       <c r="P25" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>651</v>
       </c>
@@ -9321,7 +9384,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>652</v>
       </c>
@@ -9378,7 +9441,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>654</v>
       </c>
@@ -9433,7 +9496,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>656</v>
       </c>
@@ -9491,7 +9554,7 @@
       </c>
       <c r="P29" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>658</v>
       </c>
@@ -9546,7 +9609,7 @@
       </c>
       <c r="P30" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>660</v>
       </c>
@@ -9601,7 +9664,7 @@
       </c>
       <c r="P31" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>661</v>
       </c>
@@ -9656,7 +9719,7 @@
       </c>
       <c r="P32" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>663</v>
       </c>
@@ -9716,7 +9779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
         <v>666</v>
       </c>
@@ -9771,7 +9834,7 @@
       </c>
       <c r="P34" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>668</v>
       </c>
@@ -9826,7 +9889,7 @@
         <v>669</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="6" t="n">
         <f aca="false">SUM((LEN(B36)-LEN(SUBSTITUTE(B36,"0",""))))</f>
         <v>0</v>
@@ -9876,7 +9939,7 @@
       <c r="O36" s="12"/>
       <c r="P36" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="6" t="n">
         <f aca="false">SUM((LEN(B37)-LEN(SUBSTITUTE(B37,"0",""))))</f>
         <v>0</v>
@@ -9926,7 +9989,7 @@
       <c r="O37" s="12"/>
       <c r="P37" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="6" t="n">
         <f aca="false">SUM((LEN(B38)-LEN(SUBSTITUTE(B38,"0",""))))</f>
         <v>0</v>
@@ -9976,7 +10039,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
@@ -10014,7 +10077,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="6" t="n">
         <f aca="false">SUM((LEN(B40)-LEN(SUBSTITUTE(B40,"0",""))))</f>
         <v>0</v>
@@ -10064,7 +10127,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="6" t="n">
         <f aca="false">SUM((LEN(B41)-LEN(SUBSTITUTE(B41,"0",""))))</f>
         <v>0</v>
@@ -10114,7 +10177,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="6" t="n">
         <f aca="false">SUM((LEN(B42)-LEN(SUBSTITUTE(B42,"0",""))))</f>
         <v>0</v>
@@ -10167,7 +10230,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10178,34 +10241,39 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O24" activeCellId="0" pane="topLeft" sqref="O24"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.8705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.76862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.8724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.82142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.76530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.47959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.86734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.31632653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.03061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.56122448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.86734693877551"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8862745098039"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8877551020408"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.3520408163265"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10246,7 +10314,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -10254,7 +10322,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>664</v>
       </c>
@@ -10265,7 +10333,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>670</v>
       </c>
@@ -10319,7 +10387,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>668</v>
       </c>
@@ -10370,7 +10438,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>671</v>
       </c>
@@ -10423,7 +10491,7 @@
         <v>486</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>672</v>
       </c>
@@ -10474,7 +10542,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>674</v>
       </c>
@@ -10525,7 +10593,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="0" t="s">
         <v>675</v>
@@ -10577,7 +10645,7 @@
       </c>
       <c r="P9" s="11"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>676</v>
       </c>
@@ -10628,7 +10696,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>678</v>
       </c>
@@ -10679,7 +10747,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>679</v>
       </c>
@@ -10730,7 +10798,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>680</v>
       </c>
@@ -10781,7 +10849,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>681</v>
       </c>
@@ -10832,7 +10900,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>683</v>
       </c>
@@ -10883,7 +10951,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>684</v>
       </c>
@@ -10934,7 +11002,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>686</v>
       </c>
@@ -10988,7 +11056,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>689</v>
@@ -11040,7 +11108,7 @@
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>691</v>
       </c>
@@ -11091,7 +11159,7 @@
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>692</v>
       </c>
@@ -11144,7 +11212,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>694</v>
       </c>
@@ -11195,7 +11263,7 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>696</v>
       </c>
@@ -11248,7 +11316,7 @@
         <v>698</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>699</v>
       </c>
@@ -11299,7 +11367,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>700</v>
       </c>
@@ -11352,7 +11420,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>701</v>
       </c>
@@ -11403,7 +11471,7 @@
       </c>
       <c r="P25" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>702</v>
       </c>
@@ -11456,7 +11524,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>703</v>
       </c>
@@ -11507,7 +11575,7 @@
       </c>
       <c r="P27" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>704</v>
       </c>
@@ -11558,7 +11626,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>705</v>
       </c>
@@ -11612,7 +11680,7 @@
       </c>
       <c r="P29" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>707</v>
       </c>
@@ -11663,7 +11731,7 @@
       </c>
       <c r="P30" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>709</v>
       </c>
@@ -11714,7 +11782,7 @@
       </c>
       <c r="P31" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>710</v>
       </c>
@@ -11765,7 +11833,7 @@
       </c>
       <c r="P32" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>712</v>
       </c>
@@ -11816,7 +11884,7 @@
       </c>
       <c r="P33" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.95" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>714</v>
       </c>
@@ -11872,7 +11940,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>717</v>
       </c>
@@ -11920,7 +11988,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -11931,32 +11999,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.17857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.83673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.82142857142857"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.83673469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.9285714285714"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11995,7 +12066,7 @@
       </c>
       <c r="N1" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>120</v>
       </c>
@@ -12049,7 +12120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>122</v>
       </c>
@@ -12100,7 +12171,7 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>123</v>
       </c>
@@ -12151,7 +12222,7 @@
         <v>124</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>125</v>
       </c>
@@ -12202,7 +12273,7 @@
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>127</v>
       </c>
@@ -12253,7 +12324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>128</v>
       </c>
@@ -12304,7 +12375,7 @@
         <v>129</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>130</v>
       </c>
@@ -12355,7 +12426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>131</v>
       </c>
@@ -12406,7 +12477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>133</v>
       </c>
@@ -12457,7 +12528,7 @@
         <v>124</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>134</v>
       </c>
@@ -12508,7 +12579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>135</v>
       </c>
@@ -12559,7 +12630,7 @@
         <v>136</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>137</v>
       </c>
@@ -12610,7 +12681,7 @@
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>138</v>
       </c>
@@ -12661,7 +12732,7 @@
         <v>139</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>140</v>
       </c>
@@ -12712,7 +12783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>141</v>
       </c>
@@ -12763,7 +12834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>142</v>
       </c>
@@ -12814,7 +12885,7 @@
         <v>143</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>144</v>
       </c>
@@ -12865,7 +12936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>145</v>
       </c>
@@ -12915,7 +12986,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="6" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
         <v>0</v>
@@ -12959,7 +13030,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="6" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
         <v>0</v>
@@ -13003,7 +13074,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="6" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
         <v>0</v>
@@ -13047,7 +13118,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="6" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
         <v>0</v>
@@ -13091,7 +13162,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="6" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
         <v>0</v>
@@ -13135,7 +13206,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="6" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
         <v>0</v>
@@ -13179,7 +13250,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="6" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
         <v>0</v>
@@ -13223,7 +13294,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="6" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
         <v>0</v>
@@ -13267,7 +13338,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="6" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
         <v>0</v>
@@ -13311,7 +13382,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
         <v>0</v>
@@ -13355,7 +13426,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
         <v>0</v>
@@ -13399,7 +13470,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
         <v>0</v>
@@ -13443,7 +13514,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
         <v>0</v>
@@ -13487,7 +13558,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
         <v>0</v>
@@ -13531,7 +13602,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
         <v>0</v>
@@ -13575,7 +13646,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
         <v>0</v>
@@ -13619,7 +13690,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="6" t="n">
         <f aca="false">SUM((LEN(B36)-LEN(SUBSTITUTE(B36,"0",""))))</f>
         <v>0</v>
@@ -13666,7 +13737,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13677,34 +13748,39 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O36" activeCellId="0" pane="topLeft" sqref="O36"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.4823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.4795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.77040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68877551020408"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.4666666666667"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.0823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.0765306122449"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13744,14 +13820,14 @@
       <c r="N1" s="5"/>
       <c r="O1" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
       <c r="O2" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>147</v>
       </c>
@@ -13799,7 +13875,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>148</v>
       </c>
@@ -13853,7 +13929,7 @@
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>151</v>
       </c>
@@ -13904,7 +13980,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>153</v>
       </c>
@@ -13957,7 +14033,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>156</v>
       </c>
@@ -14008,7 +14084,7 @@
       </c>
       <c r="P7" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>158</v>
       </c>
@@ -14061,7 +14137,7 @@
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="0" t="s">
         <v>161</v>
@@ -14118,7 +14194,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>163</v>
       </c>
@@ -14169,7 +14245,7 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>165</v>
       </c>
@@ -14220,7 +14296,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>167</v>
       </c>
@@ -14271,7 +14347,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>169</v>
       </c>
@@ -14322,7 +14398,7 @@
       </c>
       <c r="P13" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>171</v>
       </c>
@@ -14373,7 +14449,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>173</v>
       </c>
@@ -14426,7 +14502,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>175</v>
       </c>
@@ -14479,7 +14555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>176</v>
       </c>
@@ -14535,7 +14611,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>178</v>
@@ -14594,7 +14670,7 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>180</v>
       </c>
@@ -14647,7 +14723,7 @@
       </c>
       <c r="P19" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>182</v>
       </c>
@@ -14704,7 +14780,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>185</v>
       </c>
@@ -14764,7 +14840,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>187</v>
       </c>
@@ -14819,7 +14895,7 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>189</v>
       </c>
@@ -14874,7 +14950,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>191</v>
       </c>
@@ -14929,7 +15005,7 @@
       </c>
       <c r="P24" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>192</v>
       </c>
@@ -14984,7 +15060,7 @@
       </c>
       <c r="P25" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>194</v>
       </c>
@@ -15039,7 +15115,7 @@
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>195</v>
       </c>
@@ -15094,7 +15170,7 @@
       </c>
       <c r="P27" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>197</v>
       </c>
@@ -15149,7 +15225,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>198</v>
       </c>
@@ -15206,7 +15282,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>200</v>
       </c>
@@ -15263,7 +15339,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>202</v>
       </c>
@@ -15317,7 +15393,7 @@
         <v>196</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>203</v>
       </c>
@@ -15371,7 +15447,7 @@
         <v>204</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>205</v>
       </c>
@@ -15425,7 +15501,7 @@
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>206</v>
       </c>
@@ -15482,7 +15558,7 @@
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>209</v>
       </c>
@@ -15534,7 +15610,7 @@
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="6" t="n">
         <f aca="false">SUM((LEN(B36)-LEN(SUBSTITUTE(B36,"0",""))))</f>
         <v>0</v>
@@ -15583,7 +15659,7 @@
       </c>
       <c r="O36" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="6" t="n">
         <f aca="false">SUM((LEN(B37)-LEN(SUBSTITUTE(B37,"0",""))))</f>
         <v>0</v>
@@ -15632,7 +15708,7 @@
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="6" t="n">
         <f aca="false">SUM((LEN(B38)-LEN(SUBSTITUTE(B38,"0",""))))</f>
         <v>0</v>
@@ -15681,7 +15757,7 @@
       </c>
       <c r="O38" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
@@ -15698,7 +15774,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -15718,7 +15794,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -15737,7 +15813,7 @@
       </c>
       <c r="O41" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -15759,7 +15835,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15770,33 +15846,38 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O29" activeCellId="0" pane="topLeft" sqref="O29"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.77040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68877551020408"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7755102040816"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15836,14 +15917,14 @@
       <c r="N1" s="5"/>
       <c r="O1" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
       <c r="O2" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>207</v>
       </c>
@@ -15891,7 +15972,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>210</v>
       </c>
@@ -15945,7 +16026,7 @@
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>212</v>
       </c>
@@ -15996,7 +16077,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>214</v>
       </c>
@@ -16047,7 +16128,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>216</v>
       </c>
@@ -16098,7 +16179,7 @@
       </c>
       <c r="P7" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>218</v>
       </c>
@@ -16151,7 +16232,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="0" t="s">
         <v>220</v>
@@ -16208,7 +16289,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>222</v>
       </c>
@@ -16259,7 +16340,7 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>224</v>
       </c>
@@ -16311,7 +16392,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="26" t="s">
         <v>226</v>
       </c>
@@ -16330,7 +16411,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>227</v>
       </c>
@@ -16384,7 +16465,7 @@
       </c>
       <c r="P13" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>230</v>
       </c>
@@ -16435,7 +16516,7 @@
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>232</v>
       </c>
@@ -16488,7 +16569,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>234</v>
       </c>
@@ -16541,7 +16622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>236</v>
       </c>
@@ -16592,7 +16673,7 @@
       </c>
       <c r="P17" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>238</v>
       </c>
@@ -16643,7 +16724,7 @@
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
         <v>239</v>
@@ -16700,7 +16781,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>241</v>
       </c>
@@ -16755,7 +16836,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>243</v>
       </c>
@@ -16812,7 +16893,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>245</v>
       </c>
@@ -16867,7 +16948,7 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>247</v>
       </c>
@@ -16922,7 +17003,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>249</v>
       </c>
@@ -16977,7 +17058,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>251</v>
       </c>
@@ -17034,7 +17115,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>253</v>
       </c>
@@ -17089,7 +17170,7 @@
       </c>
       <c r="P26" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>254</v>
       </c>
@@ -17144,7 +17225,7 @@
       </c>
       <c r="P27" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>256</v>
       </c>
@@ -17202,7 +17283,7 @@
       </c>
       <c r="P28" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>259</v>
       </c>
@@ -17255,7 +17336,7 @@
       <c r="O29" s="13"/>
       <c r="P29" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="6" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
         <v>0</v>
@@ -17305,7 +17386,7 @@
       <c r="O30" s="13"/>
       <c r="P30" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="6" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
         <v>0</v>
@@ -17354,7 +17435,7 @@
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="6" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
         <v>0</v>
@@ -17403,7 +17484,7 @@
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
         <v>0</v>
@@ -17452,7 +17533,7 @@
       </c>
       <c r="O33" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
         <v>0</v>
@@ -17501,7 +17582,7 @@
       </c>
       <c r="O34" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
         <v>0</v>
@@ -17550,7 +17631,7 @@
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="6" t="n">
         <f aca="false">SUM((LEN(B36)-LEN(SUBSTITUTE(B36,"0",""))))</f>
         <v>0</v>
@@ -17599,7 +17680,7 @@
       </c>
       <c r="O36" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="6" t="n">
         <f aca="false">SUM((LEN(B37)-LEN(SUBSTITUTE(B37,"0",""))))</f>
         <v>0</v>
@@ -17648,7 +17729,7 @@
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="6" t="n">
         <f aca="false">SUM((LEN(B38)-LEN(SUBSTITUTE(B38,"0",""))))</f>
         <v>0</v>
@@ -17697,7 +17778,7 @@
       </c>
       <c r="O38" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="6" t="n">
         <f aca="false">SUM((LEN(B39)-LEN(SUBSTITUTE(B39,"0",""))))</f>
         <v>0</v>
@@ -17746,7 +17827,7 @@
       </c>
       <c r="O39" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
@@ -17763,7 +17844,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -17783,7 +17864,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -17802,7 +17883,7 @@
       </c>
       <c r="O42" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -17827,7 +17908,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -17838,33 +17919,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O37" activeCellId="0" pane="topLeft" sqref="O37"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.38775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.99489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.77040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68877551020408"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7755102040816"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17904,14 +17990,14 @@
       <c r="N1" s="5"/>
       <c r="O1" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
       <c r="O2" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>257</v>
       </c>
@@ -17959,7 +18045,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>260</v>
       </c>
@@ -18013,7 +18099,7 @@
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>262</v>
       </c>
@@ -18064,7 +18150,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>264</v>
       </c>
@@ -18115,7 +18201,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>266</v>
       </c>
@@ -18166,7 +18252,7 @@
       </c>
       <c r="P7" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>268</v>
       </c>
@@ -18217,7 +18303,7 @@
       </c>
       <c r="P8" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="0" t="s">
         <v>270</v>
@@ -18276,7 +18362,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>272</v>
       </c>
@@ -18327,7 +18413,7 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>273</v>
       </c>
@@ -18378,7 +18464,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>274</v>
       </c>
@@ -18429,7 +18515,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>275</v>
       </c>
@@ -18480,7 +18566,7 @@
       </c>
       <c r="P13" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>277</v>
       </c>
@@ -18531,7 +18617,7 @@
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>279</v>
       </c>
@@ -18582,7 +18668,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>281</v>
       </c>
@@ -18635,7 +18721,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>283</v>
       </c>
@@ -18686,7 +18772,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>284</v>
@@ -18743,7 +18829,7 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>286</v>
       </c>
@@ -18799,7 +18885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>287</v>
       </c>
@@ -18854,7 +18940,7 @@
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>289</v>
       </c>
@@ -18914,7 +19000,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>292</v>
       </c>
@@ -18969,7 +19055,7 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>294</v>
       </c>
@@ -19024,7 +19110,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>296</v>
       </c>
@@ -19079,7 +19165,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>297</v>
       </c>
@@ -19134,7 +19220,7 @@
       </c>
       <c r="P25" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>299</v>
       </c>
@@ -19189,7 +19275,7 @@
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>301</v>
       </c>
@@ -19244,7 +19330,7 @@
       </c>
       <c r="P27" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>302</v>
       </c>
@@ -19299,7 +19385,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>303</v>
       </c>
@@ -19356,7 +19442,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>304</v>
       </c>
@@ -19410,7 +19496,7 @@
         <v>193</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>305</v>
       </c>
@@ -19462,7 +19548,7 @@
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>306</v>
       </c>
@@ -19514,7 +19600,7 @@
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>307</v>
       </c>
@@ -19566,7 +19652,7 @@
       </c>
       <c r="O33" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>308</v>
       </c>
@@ -19621,7 +19707,7 @@
       </c>
       <c r="O34" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>310</v>
       </c>
@@ -19676,7 +19762,7 @@
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="6" t="n">
         <f aca="false">SUM((LEN(B36)-LEN(SUBSTITUTE(B36,"0",""))))</f>
         <v>0</v>
@@ -19725,7 +19811,7 @@
       </c>
       <c r="O36" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="6" t="n">
         <f aca="false">SUM((LEN(B37)-LEN(SUBSTITUTE(B37,"0",""))))</f>
         <v>0</v>
@@ -19774,7 +19860,7 @@
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="6" t="n">
         <f aca="false">SUM((LEN(B38)-LEN(SUBSTITUTE(B38,"0",""))))</f>
         <v>0</v>
@@ -19823,7 +19909,7 @@
       </c>
       <c r="O38" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
@@ -19840,7 +19926,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -19860,7 +19946,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -19879,7 +19965,7 @@
       </c>
       <c r="O41" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -19901,7 +19987,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19912,32 +19998,37 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O8" activeCellId="0" pane="topLeft" sqref="O8"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.68877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.77040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.77040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="4.5969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.47959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.83673469387755"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1836734693878"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19977,7 +20068,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>308</v>
       </c>
@@ -20028,7 +20119,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
         <v>311</v>
@@ -20085,7 +20176,7 @@
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
         <v>313</v>
       </c>
@@ -20136,7 +20227,7 @@
       </c>
       <c r="P4" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
         <v>315</v>
       </c>
@@ -20189,7 +20280,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>317</v>
@@ -20246,7 +20337,7 @@
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>319</v>
@@ -20303,7 +20394,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
         <v>321</v>
       </c>
@@ -20353,7 +20444,7 @@
         <v>322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
         <v>323</v>
       </c>
@@ -20403,7 +20494,7 @@
         <v>324</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>325</v>
@@ -20460,7 +20551,7 @@
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
         <v>327</v>
       </c>
@@ -20510,7 +20601,7 @@
         <v>328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
         <v>329</v>
       </c>
@@ -20560,7 +20651,7 @@
         <v>330</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>331</v>
@@ -20617,7 +20708,7 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>333</v>
@@ -20676,7 +20767,7 @@
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
         <v>335</v>
       </c>
@@ -20726,7 +20817,7 @@
         <v>336</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
         <v>337</v>
@@ -20785,7 +20876,7 @@
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
         <v>339</v>
       </c>
@@ -20837,7 +20928,7 @@
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="s">
         <v>340</v>
       </c>
@@ -20891,7 +20982,7 @@
         <v>188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
         <v>341</v>
       </c>
@@ -20945,7 +21036,7 @@
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="s">
         <v>342</v>
       </c>
@@ -21002,7 +21093,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
         <v>344</v>
       </c>
@@ -21056,7 +21147,7 @@
         <v>345</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
         <v>346</v>
       </c>
@@ -21110,7 +21201,7 @@
         <v>347</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
         <v>348</v>
       </c>
@@ -21164,7 +21255,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24"/>
       <c r="B24" s="6" t="s">
         <v>350</v>
@@ -21225,7 +21316,7 @@
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="s">
         <v>352</v>
       </c>
@@ -21282,7 +21373,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="s">
         <v>354</v>
       </c>
@@ -21336,7 +21427,7 @@
         <v>355</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="s">
         <v>356</v>
       </c>
@@ -21393,7 +21484,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="s">
         <v>358</v>
       </c>
@@ -21450,7 +21541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
         <v>359</v>
       </c>
@@ -21507,7 +21598,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24"/>
       <c r="B30" s="6" t="s">
         <v>360</v>
@@ -21568,7 +21659,7 @@
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="6" t="s">
         <v>362</v>
       </c>
@@ -21625,7 +21716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>363</v>
       </c>
@@ -21685,7 +21776,7 @@
         <v>366</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6" t="s">
         <v>367</v>
       </c>
@@ -21737,7 +21828,7 @@
       </c>
       <c r="O33" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="6" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
         <v>0</v>
@@ -21786,7 +21877,7 @@
       </c>
       <c r="O34" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
         <v>0</v>
@@ -21835,7 +21926,7 @@
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="6" t="n">
         <f aca="false">SUM((LEN(B36)-LEN(SUBSTITUTE(B36,"0",""))))</f>
         <v>0</v>
@@ -21887,7 +21978,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -21898,33 +21989,38 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.94509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.68877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.780612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.08673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.94387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.5969387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.47959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.13775510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.83673469387755"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1836734693878"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21964,7 +22060,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>363</v>
       </c>
@@ -22015,7 +22111,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
         <v>367</v>
@@ -22074,7 +22170,7 @@
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>369</v>
       </c>
@@ -22125,7 +22221,7 @@
       </c>
       <c r="P4" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>371</v>
       </c>
@@ -22175,7 +22271,7 @@
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
         <v>372</v>
@@ -22234,7 +22330,7 @@
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>374</v>
@@ -22291,7 +22387,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>376</v>
       </c>
@@ -22341,7 +22437,7 @@
         <v>377</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>378</v>
       </c>
@@ -22391,7 +22487,7 @@
         <v>379</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24"/>
       <c r="B10" s="24" t="s">
         <v>380</v>
@@ -22450,7 +22546,7 @@
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>382</v>
       </c>
@@ -22500,7 +22596,7 @@
         <v>383</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>384</v>
       </c>
@@ -22550,7 +22646,7 @@
         <v>385</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24"/>
       <c r="B13" s="24" t="s">
         <v>386</v>
@@ -22609,7 +22705,7 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24"/>
       <c r="B14" s="24" t="s">
         <v>387</v>
@@ -22668,7 +22764,7 @@
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>388</v>
       </c>
@@ -22721,7 +22817,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
         <v>390</v>
@@ -22778,7 +22874,7 @@
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>392</v>
       </c>
@@ -22833,7 +22929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>393</v>
       </c>
@@ -22887,7 +22983,7 @@
         <v>394</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>395</v>
       </c>
@@ -22941,7 +23037,7 @@
         <v>396</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>397</v>
       </c>
@@ -22995,7 +23091,7 @@
         <v>398</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>399</v>
       </c>
@@ -23049,7 +23145,7 @@
         <v>400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>401</v>
       </c>
@@ -23103,7 +23199,7 @@
         <v>402</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>403</v>
       </c>
@@ -23157,7 +23253,7 @@
         <v>265</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24"/>
       <c r="B24" s="24" t="s">
         <v>404</v>
@@ -23220,7 +23316,7 @@
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>406</v>
       </c>
@@ -23274,7 +23370,7 @@
         <v>407</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>408</v>
       </c>
@@ -23328,7 +23424,7 @@
         <v>409</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>410</v>
       </c>
@@ -23382,7 +23478,7 @@
         <v>411</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>412</v>
       </c>
@@ -23436,7 +23532,7 @@
         <v>413</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>414</v>
       </c>
@@ -23490,7 +23586,7 @@
         <v>235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24"/>
       <c r="B30" s="24" t="s">
         <v>415</v>
@@ -23553,7 +23649,7 @@
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>417</v>
       </c>
@@ -23607,7 +23703,7 @@
         <v>418</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>419</v>
       </c>
@@ -23661,7 +23757,7 @@
         <v>420</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>421</v>
       </c>
@@ -23715,7 +23811,7 @@
         <v>422</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
         <v>423</v>
       </c>
@@ -23767,7 +23863,7 @@
       </c>
       <c r="O34" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="6" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
         <v>0</v>
@@ -23816,7 +23912,7 @@
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="6" t="n">
         <f aca="false">SUM((LEN(B36)-LEN(SUBSTITUTE(B36,"0",""))))</f>
         <v>0</v>
@@ -23868,7 +23964,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -23879,31 +23975,36 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="B53" activeCellId="0" pane="topLeft" sqref="B53"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.55294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.5764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.55102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.25"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="5.13775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.29081632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.83673469387755"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1836734693878"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23944,7 +24045,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>421</v>
       </c>
@@ -23995,7 +24096,7 @@
       </c>
       <c r="P2" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>424</v>
       </c>
@@ -24049,7 +24150,7 @@
       </c>
       <c r="P3" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>426</v>
       </c>
@@ -24100,7 +24201,7 @@
       </c>
       <c r="P4" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>428</v>
       </c>
@@ -24151,7 +24252,7 @@
       </c>
       <c r="P5" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>429</v>
       </c>
@@ -24202,7 +24303,7 @@
       </c>
       <c r="P6" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>431</v>
       </c>
@@ -24253,7 +24354,7 @@
       </c>
       <c r="P7" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>433</v>
       </c>
@@ -24304,7 +24405,7 @@
       </c>
       <c r="P8" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>435</v>
       </c>
@@ -24355,7 +24456,7 @@
       </c>
       <c r="P9" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>437</v>
       </c>
@@ -24406,7 +24507,7 @@
       </c>
       <c r="P10" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>438</v>
       </c>
@@ -24460,7 +24561,7 @@
       </c>
       <c r="P11" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>441</v>
       </c>
@@ -24513,7 +24614,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>442</v>
       </c>
@@ -24564,7 +24665,7 @@
       </c>
       <c r="P13" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>444</v>
       </c>
@@ -24617,7 +24718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>446</v>
       </c>
@@ -24670,7 +24771,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>448</v>
       </c>
@@ -24721,7 +24822,7 @@
       </c>
       <c r="P16" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
         <v>450</v>
@@ -24778,7 +24879,7 @@
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>452</v>
       </c>
@@ -24829,7 +24930,7 @@
       </c>
       <c r="P18" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>454</v>
       </c>
@@ -24880,7 +24981,7 @@
       </c>
       <c r="P19" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>455</v>
       </c>
@@ -24931,7 +25032,7 @@
       </c>
       <c r="P20" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>457</v>
       </c>
@@ -24982,7 +25083,7 @@
       </c>
       <c r="P21" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>458</v>
       </c>
@@ -25033,7 +25134,7 @@
       </c>
       <c r="P22" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>460</v>
       </c>
@@ -25084,7 +25185,7 @@
       </c>
       <c r="P23" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>462</v>
       </c>
@@ -25135,7 +25236,7 @@
       </c>
       <c r="P24" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>463</v>
       </c>
@@ -25186,7 +25287,7 @@
       </c>
       <c r="P25" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
         <v>464</v>
@@ -25243,7 +25344,7 @@
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>466</v>
       </c>
@@ -25301,7 +25402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>468</v>
       </c>
@@ -25358,7 +25459,7 @@
         <v>469</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>470</v>
       </c>
@@ -25413,7 +25514,7 @@
       </c>
       <c r="P29" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>472</v>
       </c>
@@ -25468,7 +25569,7 @@
       </c>
       <c r="P30" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>474</v>
       </c>
@@ -25523,7 +25624,7 @@
       </c>
       <c r="P31" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>476</v>
       </c>
@@ -25578,7 +25679,7 @@
       </c>
       <c r="P32" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>478</v>
       </c>
@@ -25635,7 +25736,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
         <v>480</v>
       </c>
@@ -25690,7 +25791,7 @@
       </c>
       <c r="P34" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>481</v>
       </c>
@@ -25745,7 +25846,7 @@
       </c>
       <c r="P35" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
         <v>482</v>
       </c>
@@ -25800,7 +25901,7 @@
       </c>
       <c r="P36" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
         <v>484</v>
       </c>
@@ -25857,7 +25958,7 @@
         <v>486</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>487</v>
       </c>
@@ -25912,7 +26013,7 @@
       </c>
       <c r="P38" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
         <v>489</v>
       </c>
@@ -25967,7 +26068,7 @@
       </c>
       <c r="P39" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
         <v>491</v>
       </c>
@@ -26022,7 +26123,7 @@
       </c>
       <c r="P40" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
         <v>493</v>
       </c>
@@ -26077,7 +26178,7 @@
       </c>
       <c r="P41" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
         <v>495</v>
       </c>
@@ -26132,7 +26233,7 @@
       </c>
       <c r="P42" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>497</v>
       </c>
@@ -26187,7 +26288,7 @@
       </c>
       <c r="P43" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>499</v>
       </c>
@@ -26242,7 +26343,7 @@
       </c>
       <c r="P44" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>501</v>
       </c>
@@ -26302,7 +26403,7 @@
         <v>503</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>504</v>
       </c>
@@ -26357,7 +26458,7 @@
       </c>
       <c r="P46" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
@@ -26395,7 +26496,7 @@
       <c r="O47" s="12"/>
       <c r="P47" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
         <v>505</v>
       </c>
@@ -26450,7 +26551,7 @@
       </c>
       <c r="P48" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
         <v>507</v>
       </c>
@@ -26505,7 +26606,7 @@
       </c>
       <c r="P49" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
         <v>509</v>
       </c>
@@ -26562,7 +26663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
         <v>510</v>
       </c>
@@ -26617,7 +26718,7 @@
       </c>
       <c r="P51" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
         <v>511</v>
       </c>
@@ -26674,7 +26775,7 @@
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
         <v>512</v>
       </c>
@@ -26729,7 +26830,7 @@
       </c>
       <c r="P53" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>514</v>
       </c>
@@ -26784,7 +26885,7 @@
       </c>
       <c r="P54" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
         <v>515</v>
       </c>
@@ -26841,7 +26942,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
         <v>517</v>
       </c>
@@ -26896,7 +26997,7 @@
       </c>
       <c r="P56" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
         <v>518</v>
       </c>
@@ -26953,7 +27054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
         <v>519</v>
       </c>
@@ -27008,7 +27109,7 @@
       </c>
       <c r="P58" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
         <v>521</v>
       </c>
@@ -27063,7 +27164,7 @@
       </c>
       <c r="P59" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
         <v>522</v>
       </c>
@@ -27118,7 +27219,7 @@
       </c>
       <c r="P60" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>524</v>
       </c>
@@ -27174,7 +27275,7 @@
       <c r="O61" s="12"/>
       <c r="P61" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="6" t="n">
         <f aca="false">SUM((LEN(B62)-LEN(SUBSTITUTE(B62,"0",""))))</f>
         <v>0</v>
@@ -27224,7 +27325,7 @@
       <c r="O62" s="12"/>
       <c r="P62" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="n">
         <f aca="false">SUM((LEN(B63)-LEN(SUBSTITUTE(B63,"0",""))))</f>
         <v>0</v>
@@ -27274,7 +27375,7 @@
       <c r="O63" s="12"/>
       <c r="P63" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="n">
         <f aca="false">SUM((LEN(B64)-LEN(SUBSTITUTE(B64,"0",""))))</f>
         <v>0</v>
@@ -27324,7 +27425,7 @@
       <c r="O64" s="12"/>
       <c r="P64" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="n">
         <f aca="false">SUM((LEN(B65)-LEN(SUBSTITUTE(B65,"0",""))))</f>
         <v>0</v>
@@ -27372,7 +27473,7 @@
       <c r="O65" s="12"/>
       <c r="P65" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="24" t="n">
         <f aca="false">SUM((LEN(B66)-LEN(SUBSTITUTE(B66,"0",""))))</f>
         <v>0</v>
@@ -27418,7 +27519,7 @@
       <c r="O66" s="12"/>
       <c r="P66" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="n">
         <f aca="false">SUM((LEN(B67)-LEN(SUBSTITUTE(B67,"0",""))))</f>
         <v>0</v>
@@ -27464,7 +27565,7 @@
       <c r="O67" s="13"/>
       <c r="P67" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="n">
         <f aca="false">SUM((LEN(B68)-LEN(SUBSTITUTE(B68,"0",""))))</f>
         <v>0</v>
@@ -27510,7 +27611,7 @@
       <c r="O68" s="12"/>
       <c r="P68" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="n">
         <f aca="false">SUM((LEN(B69)-LEN(SUBSTITUTE(B69,"0",""))))</f>
         <v>0</v>
@@ -27556,7 +27657,7 @@
       <c r="O69" s="12"/>
       <c r="P69" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="n">
         <f aca="false">SUM((LEN(B70)-LEN(SUBSTITUTE(B70,"0",""))))</f>
         <v>0</v>
@@ -27602,7 +27703,7 @@
       <c r="O70" s="12"/>
       <c r="P70" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="n">
         <f aca="false">SUM((LEN(B71)-LEN(SUBSTITUTE(B71,"0",""))))</f>
         <v>0</v>
@@ -27648,7 +27749,7 @@
       <c r="O71" s="12"/>
       <c r="P71" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="n">
         <f aca="false">SUM((LEN(B72)-LEN(SUBSTITUTE(B72,"0",""))))</f>
         <v>0</v>
@@ -27697,7 +27798,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -27708,33 +27809,38 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="B66" activeCellId="0" pane="topLeft" sqref="B66"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.7960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.64285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.39285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.5969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.25"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.85714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.61734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.56122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.91326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.6530612244898"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1836734693878"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27774,7 +27880,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>525</v>
       </c>
@@ -27827,7 +27933,7 @@
         <v>288</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
@@ -27880,7 +27986,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
@@ -27933,7 +28039,7 @@
         <v>469</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
@@ -27983,7 +28089,7 @@
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="n">
         <v>41282</v>
       </c>
@@ -28036,7 +28142,7 @@
         <v>528</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33"/>
       <c r="B7" s="33" t="s">
         <v>17</v>
@@ -28095,7 +28201,7 @@
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
@@ -28145,7 +28251,7 @@
         <v>485</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
@@ -28195,7 +28301,7 @@
         <v>244</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>20</v>
       </c>
@@ -28245,7 +28351,7 @@
         <v>233</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>21</v>
       </c>
@@ -28295,7 +28401,7 @@
         <v>530</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>22</v>
       </c>
@@ -28345,7 +28451,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>23</v>
       </c>
@@ -28395,7 +28501,7 @@
         <v>532</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>24</v>
       </c>
@@ -28445,7 +28551,7 @@
         <v>533</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>25</v>
       </c>
@@ -28495,7 +28601,7 @@
         <v>534</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33"/>
       <c r="B16" s="33" t="s">
         <v>26</v>
@@ -28552,7 +28658,7 @@
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>41616</v>
       </c>
@@ -28607,7 +28713,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>29</v>
       </c>
@@ -28661,7 +28767,7 @@
         <v>418</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>31</v>
       </c>
@@ -28715,7 +28821,7 @@
         <v>536</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>33</v>
       </c>
@@ -28769,7 +28875,7 @@
         <v>537</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>35</v>
       </c>
@@ -28823,7 +28929,7 @@
         <v>538</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>38</v>
       </c>
@@ -28877,7 +28983,7 @@
         <v>240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>41</v>
       </c>
@@ -28931,7 +29037,7 @@
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>43</v>
       </c>
@@ -28985,7 +29091,7 @@
         <v>539</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>45</v>
       </c>
@@ -29039,7 +29145,7 @@
         <v>540</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>47</v>
       </c>
@@ -29096,7 +29202,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>49</v>
       </c>
@@ -29150,7 +29256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>51</v>
       </c>
@@ -29204,7 +29310,7 @@
         <v>188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>52</v>
       </c>
@@ -29258,7 +29364,7 @@
         <v>542</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>54</v>
       </c>
@@ -29312,7 +29418,7 @@
         <v>543</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>57</v>
       </c>
@@ -29366,7 +29472,7 @@
         <v>544</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>59</v>
       </c>
@@ -29420,7 +29526,7 @@
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>60</v>
       </c>
@@ -29474,7 +29580,7 @@
         <v>370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
         <v>61</v>
       </c>
@@ -29528,7 +29634,7 @@
         <v>545</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>63</v>
       </c>
@@ -29582,7 +29688,7 @@
         <v>546</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>547</v>
       </c>
@@ -29639,7 +29745,7 @@
         <v>548</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
@@ -29676,7 +29782,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>67</v>
       </c>
@@ -29733,7 +29839,7 @@
         <v>550</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
         <v>68</v>
       </c>
@@ -29787,7 +29893,7 @@
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
         <v>70</v>
       </c>
@@ -29844,7 +29950,7 @@
         <v>595</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
         <v>72</v>
       </c>
@@ -29898,7 +30004,7 @@
         <v>553</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
         <v>73</v>
       </c>
@@ -29952,7 +30058,7 @@
         <v>554</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>75</v>
       </c>
@@ -30009,7 +30115,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>77</v>
       </c>
@@ -30063,7 +30169,7 @@
         <v>556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>79</v>
       </c>
@@ -30117,7 +30223,7 @@
         <v>557</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>82</v>
       </c>
@@ -30171,7 +30277,7 @@
         <v>558</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
         <v>84</v>
       </c>
@@ -30225,7 +30331,7 @@
         <v>559</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="24" t="s">
         <v>85</v>
       </c>
@@ -30282,7 +30388,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>41617</v>
       </c>
@@ -30342,7 +30448,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
         <v>88</v>
       </c>
@@ -30396,7 +30502,7 @@
         <v>562</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>91</v>
       </c>
@@ -30453,7 +30559,7 @@
         <v>563</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>94</v>
       </c>
@@ -30510,7 +30616,7 @@
         <v>564</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
         <v>97</v>
       </c>
@@ -30564,7 +30670,7 @@
         <v>565</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>99</v>
       </c>
@@ -30618,7 +30724,7 @@
         <v>566</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
         <v>101</v>
       </c>
@@ -30670,7 +30776,7 @@
         <v>567</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
         <v>102</v>
       </c>
@@ -30720,7 +30826,7 @@
         <v>568</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
         <v>104</v>
       </c>
@@ -30770,7 +30876,7 @@
         <v>569</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="24" t="s">
         <v>106</v>
       </c>
@@ -30823,7 +30929,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
         <v>108</v>
       </c>
@@ -30873,7 +30979,7 @@
         <v>571</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
         <v>110</v>
       </c>
@@ -30926,7 +31032,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
         <v>111</v>
       </c>
@@ -30976,7 +31082,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
         <v>112</v>
       </c>
@@ -31029,7 +31135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
         <v>114</v>
       </c>
@@ -31079,7 +31185,7 @@
         <v>575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
         <v>115</v>
       </c>
@@ -31132,7 +31238,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
         <v>116</v>
       </c>
@@ -31182,7 +31288,7 @@
         <v>576</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
         <v>117</v>
       </c>
@@ -31232,7 +31338,7 @@
         <v>577</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
         <v>118</v>
       </c>
@@ -31282,7 +31388,7 @@
         <v>300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>120</v>
       </c>
@@ -31336,7 +31442,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
